--- a/extras/datos/captura datos Ing Sistemas FRANCISCO.xlsx
+++ b/extras/datos/captura datos Ing Sistemas FRANCISCO.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\boostrap studio\Servicio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tutorias\extras\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A27DE50-8960-4DDF-89CA-1EC27A331123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C00A20-3165-46B0-8CE7-FD50924800E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23017515-5504-4510-AD65-535B5F72485F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{23017515-5504-4510-AD65-535B5F72485F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="210">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -529,6 +530,138 @@
   </si>
   <si>
     <t>Abraham</t>
+  </si>
+  <si>
+    <t>FECHA DE NACIMIENTO</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>CORREO ELECTRONICO</t>
+  </si>
+  <si>
+    <t>NUMERO DE TELEFONO</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>CIUDAD</t>
+  </si>
+  <si>
+    <t>FOTO</t>
+  </si>
+  <si>
+    <t>direccion prueba</t>
+  </si>
+  <si>
+    <t>Juchitán</t>
+  </si>
+  <si>
+    <t>Tehuantepec</t>
+  </si>
+  <si>
+    <t>Ixtepec</t>
+  </si>
+  <si>
+    <t>Espinal</t>
+  </si>
+  <si>
+    <t>Unión Hidalgo</t>
+  </si>
+  <si>
+    <t>Chicapa</t>
+  </si>
+  <si>
+    <t>Ixtaltepec</t>
+  </si>
+  <si>
+    <t>Salina Cruz</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>/directory/img-person/RoelMorales.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/KarinaNuñez.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/KeniaOrozco.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/FátimaAntinio.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/VicenteAquino.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/BaudelAranjo.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/BrianBenefield.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/ClarissaZavala.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/LuisFuentes.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/MaytorRevuelta.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/JorgeRobles.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/SergioRodas.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/GiovanniAlexanderMorales.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/DennisSabasOrozco.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/CarlosRobertoOrtiz.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/IsisYamileAltamirano.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/ItzuryAlejandraAquino.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/YosmarManuelAvedaño.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/KevinGabrielZarate.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/JesusAntonioZarate.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/AlbaBeatrizAguilar.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/BrisaDonajiRuiz.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/JairMichaelRuiz.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/JoséGuillermoGonzales.jpg</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>/directory/img-person/UsmarIsaccMiguel.jpg</t>
   </si>
 </sst>
 </file>
@@ -603,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -618,6 +751,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F646EE8-7CC3-4945-A430-704E50C10C5B}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D61" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2324,4 +2462,1019 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2B5FE0-EEC0-4F6B-975E-DE53E3E1823C}">
+  <dimension ref="A1:S26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" customWidth="1"/>
+    <col min="10" max="10" width="51.88671875" customWidth="1"/>
+    <col min="12" max="12" width="198.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>36449</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE(B2,A2,LEFT(C2,2),"@gmail.com")</f>
+        <v>LopezMiguelUs@gmail.com</v>
+      </c>
+      <c r="G2" t="str">
+        <f ca="1">CONCATENATE("971",RANDBETWEEN(1111111,9999999))</f>
+        <v>9718643085</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L2" t="str">
+        <f ca="1">CONCATENATE("INSERT INTO 'persona' VALUES (",$S$2,C2,$S$2,",",$S$2,A2,$S$2,",",$S$2,B2,$S$2,",",TEXT(D2,"dd/mm/aaaa"),",",$S$2,E2,$S$2,",",$S$2,F2,$S$2,",",$S$2,G2,$S$2,",",$S$2,H2,$S$2,",",$S$2,I2,$S$2,",",$S$2,J2,$S$2)</f>
+        <v>INSERT INTO 'persona' VALUES ("Usmar Isacc","Miguel","Lopez",16/10/1999,"M","LopezMiguelUs@gmail.com","9718643085","direccion prueba","Ixtepec","/directory/img-person/UsmarIsaccMiguel.jpg"</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7">
+        <v>36261</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F26" si="0">CONCATENATE(B3,A3,LEFT(C3,2),"@gmail.com")</f>
+        <v>LopezMoralesGi@gmail.com</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G26" ca="1" si="1">CONCATENATE("971",RANDBETWEEN(1111111,9999999))</f>
+        <v>9716537884</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L26" ca="1" si="2">CONCATENATE("INSERT INTO 'persona' VALUES (",$S$2,C3,$S$2,",",$S$2,A3,$S$2,",",$S$2,B3,$S$2,",",TEXT(D3,"dd/mm/aaaa"),",",$S$2,E3,$S$2,",",$S$2,F3,$S$2,",",$S$2,G3,$S$2,",",$S$2,H3,$S$2,",",$S$2,I3,$S$2,",",$S$2,J3,$S$2)</f>
+        <v>INSERT INTO 'persona' VALUES ("Giovanni Alexander","Morales","Lopez",11/04/1999,"M","LopezMoralesGi@gmail.com","9716537884","direccion prueba","Ixtaltepec","/directory/img-person/GiovanniAlexanderMorales.jpg"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>35921</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>OrozcoMoralesRo@gmail.com</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9714398190</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Roel","Morales","Orozco",06/05/1998,"M","OrozcoMoralesRo@gmail.com","9714398190","direccion prueba","Juchitán","/directory/img-person/RoelMorales.jpg"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>36287</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>SilvaNuñezKa@gmail.com</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9717375329</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Karina","Nuñez","Silva",07/05/1999,"F","SilvaNuñezKa@gmail.com","9717375329","direccion prueba","Ixtepec","/directory/img-person/KarinaNuñez.jpg"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>36464</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>CruzOrozcoKe@gmail.com</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9719281395</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Kenia","Orozco","Cruz",31/10/1999,"F","CruzOrozcoKe@gmail.com","9719281395","direccion prueba","Salina Cruz","/directory/img-person/KeniaOrozco.jpg"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7">
+        <v>36183</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>BautistaOrozcoDe@gmail.com</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9717008084</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Dennis Sabas","Orozco","Bautista",23/01/1999,"F","BautistaOrozcoDe@gmail.com","9717008084","direccion prueba","Juchitán","/directory/img-person/DennisSabasOrozco.jpg"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7">
+        <v>36297</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>MatusOrtizCa@gmail.com</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9712999067</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" t="s">
+        <v>198</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Carlos Roberto","Ortiz","Matus",17/05/1999,"M","MatusOrtizCa@gmail.com","9712999067","direccion prueba","Salina Cruz","/directory/img-person/CarlosRobertoOrtiz.jpg"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7">
+        <v>35918</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>SolanoAltamiranoIs@gmail.com</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9711943292</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" t="s">
+        <v>199</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Isis Yamile","Altamirano","Solano",03/05/1998,"F","SolanoAltamiranoIs@gmail.com","9711943292","direccion prueba","Ixtepec","/directory/img-person/IsisYamileAltamirano.jpg"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="7">
+        <v>36168</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>SanchezAntinioFá@gmail.com</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9715837104</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Fátima","Antinio","Sanchez",08/01/1999,"F","SanchezAntinioFá@gmail.com","9715837104","direccion prueba","Juchitán","/directory/img-person/FátimaAntinio.jpg"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="7">
+        <v>36521</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>CruzAquinoIt@gmail.com</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9714814547</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" t="s">
+        <v>200</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Itzury Alejandra","Aquino","Cruz",27/12/1999,"F","CruzAquinoIt@gmail.com","9714814547","direccion prueba","Chicapa","/directory/img-person/ItzuryAlejandraAquino.jpg"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7">
+        <v>36444</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>RegaladoAquinoVi@gmail.com</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9712836224</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J12" t="s">
+        <v>188</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Vicente","Aquino","Regalado",11/10/1999,"M","RegaladoAquinoVi@gmail.com","9712836224","direccion prueba","Juchitán","/directory/img-person/VicenteAquino.jpg"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7">
+        <v>36497</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>BenitezAranjoBa@gmail.com</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9718294495</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" t="s">
+        <v>189</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Baudel","Aranjo","Benitez",03/12/1999,"M","BenitezAranjoBa@gmail.com","9718294495","direccion prueba","Espinal","/directory/img-person/BaudelAranjo.jpg"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7">
+        <v>36478</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>MoralesAvedañoYo@gmail.com</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9711830655</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J14" t="s">
+        <v>201</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Yosmar Manuel","Avedaño","Morales",14/11/1999,"M","MoralesAvedañoYo@gmail.com","9711830655","direccion prueba","Ixtaltepec","/directory/img-person/YosmarManuelAvedaño.jpg"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>36367</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>MoralesBenefieldBr@gmail.com</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9718085542</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" t="s">
+        <v>178</v>
+      </c>
+      <c r="J15" t="s">
+        <v>190</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Brian","Benefield","Morales",26/07/1999,"M","MoralesBenefieldBr@gmail.com","9718085542","direccion prueba","Unión Hidalgo","/directory/img-person/BrianBenefield.jpg"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7">
+        <v>35984</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>VelasquezZarateKe@gmail.com</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9714804363</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Kevin Gabriel","Zarate","Velasquez",08/07/1998,"M","VelasquezZarateKe@gmail.com","9714804363","direccion prueba","Chicapa","/directory/img-person/KevinGabrielZarate.jpg"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7">
+        <v>36273</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>VillalobosZarateJe@gmail.com</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9716652321</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Jesus Antonio","Zarate","Villalobos",23/04/1999,"M","VillalobosZarateJe@gmail.com","9716652321","direccion prueba","Juchitán","/directory/img-person/JesusAntonioZarate.jpg"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="7">
+        <v>36404</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>JiménezZavalaCl@gmail.com</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9713136729</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Clarissa","Zavala","Jiménez",01/09/1999,"F","JiménezZavalaCl@gmail.com","9713136729","direccion prueba","Chicapa","/directory/img-person/ClarissaZavala.jpg"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="7">
+        <v>36314</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>UlisesAguilarAl@gmail.com</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9713795592</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>204</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Alba Beatriz","Aguilar","Ulises",03/06/1999,"F","UlisesAguilarAl@gmail.com","9713795592","direccion prueba","Ixtepec","/directory/img-person/AlbaBeatrizAguilar.jpg"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="7">
+        <v>36515</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>de JesusFuentesLu@gmail.com</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9712832723</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Luis","Fuentes","de Jesus",21/12/1999,"M","de JesusFuentesLu@gmail.com","9712832723","direccion prueba","Espinal","/directory/img-person/LuisFuentes.jpg"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="7">
+        <v>36491</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>RosadoRevueltaMa@gmail.com</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9715824747</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Maytor","Revuelta","Rosado",27/11/1999,"M","RosadoRevueltaMa@gmail.com","9715824747","direccion prueba","Juchitán","/directory/img-person/MaytorRevuelta.jpg"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="7">
+        <v>36277</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>LuisRoblesJo@gmail.com</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9719591540</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Jorge","Robles","Luis",27/04/1999,"M","LuisRoblesJo@gmail.com","9719591540","direccion prueba","Tehuantepec","/directory/img-person/JorgeRobles.jpg"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="7">
+        <v>36126</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>EscobarRodasSe@gmail.com</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9718285338</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Sergio","Rodas","Escobar",27/11/1998,"M","EscobarRodasSe@gmail.com","9718285338","direccion prueba","Unión Hidalgo","/directory/img-person/SergioRodas.jpg"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="7">
+        <v>36168</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>SanchezRuizBr@gmail.com</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9711479144</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Brisa Donaji","Ruiz","Sanchez",08/01/1999,"F","SanchezRuizBr@gmail.com","9711479144","direccion prueba","Ixtaltepec","/directory/img-person/BrisaDonajiRuiz.jpg"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="7">
+        <v>36445</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>VicenteRuizJa@gmail.com</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9717657524</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("Jair Michael","Ruiz","Vicente",12/10/1999,"M","VicenteRuizJa@gmail.com","9717657524","direccion prueba","Tehuantepec","/directory/img-person/JairMichaelRuiz.jpg"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="7">
+        <v>36182</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>LopezGonzalesJo@gmail.com</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9714045796</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO 'persona' VALUES ("José Guillermo","Gonzales","Lopez",22/01/1999,"M","LopezGonzalesJo@gmail.com","9714045796","direccion prueba","Juchitán","/directory/img-person/JoséGuillermoGonzales.jpg"</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/extras/datos/captura datos Ing Sistemas FRANCISCO.xlsx
+++ b/extras/datos/captura datos Ing Sistemas FRANCISCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tutorias\extras\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C00A20-3165-46B0-8CE7-FD50924800E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574BC9C2-C840-43A9-AC1A-0AA579D2EE7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{23017515-5504-4510-AD65-535B5F72485F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="256">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -662,16 +662,162 @@
   </si>
   <si>
     <t>/directory/img-person/UsmarIsaccMiguel.jpg</t>
+  </si>
+  <si>
+    <t>de la Cruz</t>
+  </si>
+  <si>
+    <t>CruzSantiagoFr@gmail.com</t>
+  </si>
+  <si>
+    <t>Parada</t>
+  </si>
+  <si>
+    <t>Fernández</t>
+  </si>
+  <si>
+    <t>Piñon</t>
+  </si>
+  <si>
+    <t>Juan Carlos</t>
+  </si>
+  <si>
+    <t>Enríquez</t>
+  </si>
+  <si>
+    <t>Couder</t>
+  </si>
+  <si>
+    <t>Emanuel</t>
+  </si>
+  <si>
+    <t>Humberto</t>
+  </si>
+  <si>
+    <t>Guevea</t>
+  </si>
+  <si>
+    <t>9717995120</t>
+  </si>
+  <si>
+    <t>9714324512</t>
+  </si>
+  <si>
+    <t>9714860957</t>
+  </si>
+  <si>
+    <t>9712623032</t>
+  </si>
+  <si>
+    <t>9712793311</t>
+  </si>
+  <si>
+    <t>9713721570</t>
+  </si>
+  <si>
+    <t>9718332712</t>
+  </si>
+  <si>
+    <t>9718259758</t>
+  </si>
+  <si>
+    <t>9716330120</t>
+  </si>
+  <si>
+    <t>9716802586</t>
+  </si>
+  <si>
+    <t>9712106115</t>
+  </si>
+  <si>
+    <t>9717592062</t>
+  </si>
+  <si>
+    <t>9716019661</t>
+  </si>
+  <si>
+    <t>9714772466</t>
+  </si>
+  <si>
+    <t>9712498199</t>
+  </si>
+  <si>
+    <t>9716213801</t>
+  </si>
+  <si>
+    <t>9715339317</t>
+  </si>
+  <si>
+    <t>9714414298</t>
+  </si>
+  <si>
+    <t>9713345356</t>
+  </si>
+  <si>
+    <t>9713195036</t>
+  </si>
+  <si>
+    <t>9714341427</t>
+  </si>
+  <si>
+    <t>9713849923</t>
+  </si>
+  <si>
+    <t>9716521066</t>
+  </si>
+  <si>
+    <t>9715469345</t>
+  </si>
+  <si>
+    <t>9711561046</t>
+  </si>
+  <si>
+    <t>9711744464</t>
+  </si>
+  <si>
+    <t>9719614394</t>
+  </si>
+  <si>
+    <t>9715787642</t>
+  </si>
+  <si>
+    <t>9719665488</t>
+  </si>
+  <si>
+    <t>9718507158</t>
+  </si>
+  <si>
+    <t>/directory/img-person/FranciscoSantiago.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/Luis AlbertoRobles.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/Juan CarlosFernández.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/EmanuelEnríquez.jpg</t>
+  </si>
+  <si>
+    <t>/directory/img-person/HumbertoToledo.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -733,10 +879,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -756,8 +903,13 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2466,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2B5FE0-EEC0-4F6B-975E-DE53E3E1823C}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2539,9 +2691,8 @@
         <f>CONCATENATE(B2,A2,LEFT(C2,2),"@gmail.com")</f>
         <v>LopezMiguelUs@gmail.com</v>
       </c>
-      <c r="G2" t="str">
-        <f ca="1">CONCATENATE("971",RANDBETWEEN(1111111,9999999))</f>
-        <v>9718643085</v>
+      <c r="G2" t="s">
+        <v>221</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>173</v>
@@ -2553,8 +2704,8 @@
         <v>209</v>
       </c>
       <c r="L2" t="str">
-        <f ca="1">CONCATENATE("INSERT INTO 'persona' VALUES (",$S$2,C2,$S$2,",",$S$2,A2,$S$2,",",$S$2,B2,$S$2,",",TEXT(D2,"dd/mm/aaaa"),",",$S$2,E2,$S$2,",",$S$2,F2,$S$2,",",$S$2,G2,$S$2,",",$S$2,H2,$S$2,",",$S$2,I2,$S$2,",",$S$2,J2,$S$2)</f>
-        <v>INSERT INTO 'persona' VALUES ("Usmar Isacc","Miguel","Lopez",16/10/1999,"M","LopezMiguelUs@gmail.com","9718643085","direccion prueba","Ixtepec","/directory/img-person/UsmarIsaccMiguel.jpg"</v>
+        <f>CONCATENATE("INSERT INTO 'persona' VALUES (",$S$2,C2,$S$2,",",$S$2,A2,$S$2,",",$S$2,B2,$S$2,",",TEXT(D2,"dd/mm/aaaa"),",",$S$2,E2,$S$2,",",$S$2,F2,$S$2,",",$S$2,G2,$S$2,",",$S$2,H2,$S$2,",",$S$2,I2,$S$2,",",$S$2,J2,$S$2)</f>
+        <v>INSERT INTO 'persona' VALUES ("Usmar Isacc","Miguel","Lopez",16/10/1999,"M","LopezMiguelUs@gmail.com","9717995120","direccion prueba","Ixtepec","/directory/img-person/UsmarIsaccMiguel.jpg"</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -2579,12 +2730,11 @@
         <v>182</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F26" si="0">CONCATENATE(B3,A3,LEFT(C3,2),"@gmail.com")</f>
+        <f t="shared" ref="F3:F32" si="0">CONCATENATE(B3,A3,LEFT(C3,2),"@gmail.com")</f>
         <v>LopezMoralesGi@gmail.com</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G26" ca="1" si="1">CONCATENATE("971",RANDBETWEEN(1111111,9999999))</f>
-        <v>9716537884</v>
+      <c r="G3" t="s">
+        <v>222</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>173</v>
@@ -2596,8 +2746,8 @@
         <v>196</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L26" ca="1" si="2">CONCATENATE("INSERT INTO 'persona' VALUES (",$S$2,C3,$S$2,",",$S$2,A3,$S$2,",",$S$2,B3,$S$2,",",TEXT(D3,"dd/mm/aaaa"),",",$S$2,E3,$S$2,",",$S$2,F3,$S$2,",",$S$2,G3,$S$2,",",$S$2,H3,$S$2,",",$S$2,I3,$S$2,",",$S$2,J3,$S$2)</f>
-        <v>INSERT INTO 'persona' VALUES ("Giovanni Alexander","Morales","Lopez",11/04/1999,"M","LopezMoralesGi@gmail.com","9716537884","direccion prueba","Ixtaltepec","/directory/img-person/GiovanniAlexanderMorales.jpg"</v>
+        <f t="shared" ref="L3:L32" si="1">CONCATENATE("INSERT INTO 'persona' VALUES (",$S$2,C3,$S$2,",",$S$2,A3,$S$2,",",$S$2,B3,$S$2,",",TEXT(D3,"dd/mm/aaaa"),",",$S$2,E3,$S$2,",",$S$2,F3,$S$2,",",$S$2,G3,$S$2,",",$S$2,H3,$S$2,",",$S$2,I3,$S$2,",",$S$2,J3,$S$2)</f>
+        <v>INSERT INTO 'persona' VALUES ("Giovanni Alexander","Morales","Lopez",11/04/1999,"M","LopezMoralesGi@gmail.com","9714324512","direccion prueba","Ixtaltepec","/directory/img-person/GiovanniAlexanderMorales.jpg"</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -2620,9 +2770,8 @@
         <f t="shared" si="0"/>
         <v>OrozcoMoralesRo@gmail.com</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9714398190</v>
+      <c r="G4" t="s">
+        <v>223</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>173</v>
@@ -2634,8 +2783,8 @@
         <v>184</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Roel","Morales","Orozco",06/05/1998,"M","OrozcoMoralesRo@gmail.com","9714398190","direccion prueba","Juchitán","/directory/img-person/RoelMorales.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Roel","Morales","Orozco",06/05/1998,"M","OrozcoMoralesRo@gmail.com","9714860957","direccion prueba","Juchitán","/directory/img-person/RoelMorales.jpg"</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -2658,9 +2807,8 @@
         <f t="shared" si="0"/>
         <v>SilvaNuñezKa@gmail.com</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9717375329</v>
+      <c r="G5" t="s">
+        <v>224</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>173</v>
@@ -2672,8 +2820,8 @@
         <v>185</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Karina","Nuñez","Silva",07/05/1999,"F","SilvaNuñezKa@gmail.com","9717375329","direccion prueba","Ixtepec","/directory/img-person/KarinaNuñez.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Karina","Nuñez","Silva",07/05/1999,"F","SilvaNuñezKa@gmail.com","9712623032","direccion prueba","Ixtepec","/directory/img-person/KarinaNuñez.jpg"</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2696,9 +2844,8 @@
         <f t="shared" si="0"/>
         <v>CruzOrozcoKe@gmail.com</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9719281395</v>
+      <c r="G6" t="s">
+        <v>225</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>173</v>
@@ -2710,8 +2857,8 @@
         <v>186</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Kenia","Orozco","Cruz",31/10/1999,"F","CruzOrozcoKe@gmail.com","9719281395","direccion prueba","Salina Cruz","/directory/img-person/KeniaOrozco.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Kenia","Orozco","Cruz",31/10/1999,"F","CruzOrozcoKe@gmail.com","9712793311","direccion prueba","Salina Cruz","/directory/img-person/KeniaOrozco.jpg"</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2734,9 +2881,8 @@
         <f t="shared" si="0"/>
         <v>BautistaOrozcoDe@gmail.com</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9717008084</v>
+      <c r="G7" t="s">
+        <v>226</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>173</v>
@@ -2748,8 +2894,8 @@
         <v>197</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Dennis Sabas","Orozco","Bautista",23/01/1999,"F","BautistaOrozcoDe@gmail.com","9717008084","direccion prueba","Juchitán","/directory/img-person/DennisSabasOrozco.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Dennis Sabas","Orozco","Bautista",23/01/1999,"F","BautistaOrozcoDe@gmail.com","9713721570","direccion prueba","Juchitán","/directory/img-person/DennisSabasOrozco.jpg"</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2772,9 +2918,8 @@
         <f t="shared" si="0"/>
         <v>MatusOrtizCa@gmail.com</v>
       </c>
-      <c r="G8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9712999067</v>
+      <c r="G8" t="s">
+        <v>227</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>173</v>
@@ -2786,8 +2931,8 @@
         <v>198</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Carlos Roberto","Ortiz","Matus",17/05/1999,"M","MatusOrtizCa@gmail.com","9712999067","direccion prueba","Salina Cruz","/directory/img-person/CarlosRobertoOrtiz.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Carlos Roberto","Ortiz","Matus",17/05/1999,"M","MatusOrtizCa@gmail.com","9718332712","direccion prueba","Salina Cruz","/directory/img-person/CarlosRobertoOrtiz.jpg"</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -2810,9 +2955,8 @@
         <f t="shared" si="0"/>
         <v>SolanoAltamiranoIs@gmail.com</v>
       </c>
-      <c r="G9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9711943292</v>
+      <c r="G9" t="s">
+        <v>228</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>173</v>
@@ -2824,8 +2968,8 @@
         <v>199</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Isis Yamile","Altamirano","Solano",03/05/1998,"F","SolanoAltamiranoIs@gmail.com","9711943292","direccion prueba","Ixtepec","/directory/img-person/IsisYamileAltamirano.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Isis Yamile","Altamirano","Solano",03/05/1998,"F","SolanoAltamiranoIs@gmail.com","9718259758","direccion prueba","Ixtepec","/directory/img-person/IsisYamileAltamirano.jpg"</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -2848,9 +2992,8 @@
         <f t="shared" si="0"/>
         <v>SanchezAntinioFá@gmail.com</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9715837104</v>
+      <c r="G10" t="s">
+        <v>229</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>173</v>
@@ -2862,8 +3005,8 @@
         <v>187</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Fátima","Antinio","Sanchez",08/01/1999,"F","SanchezAntinioFá@gmail.com","9715837104","direccion prueba","Juchitán","/directory/img-person/FátimaAntinio.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Fátima","Antinio","Sanchez",08/01/1999,"F","SanchezAntinioFá@gmail.com","9716330120","direccion prueba","Juchitán","/directory/img-person/FátimaAntinio.jpg"</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -2886,9 +3029,8 @@
         <f t="shared" si="0"/>
         <v>CruzAquinoIt@gmail.com</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9714814547</v>
+      <c r="G11" t="s">
+        <v>230</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>173</v>
@@ -2900,8 +3042,8 @@
         <v>200</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Itzury Alejandra","Aquino","Cruz",27/12/1999,"F","CruzAquinoIt@gmail.com","9714814547","direccion prueba","Chicapa","/directory/img-person/ItzuryAlejandraAquino.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Itzury Alejandra","Aquino","Cruz",27/12/1999,"F","CruzAquinoIt@gmail.com","9716802586","direccion prueba","Chicapa","/directory/img-person/ItzuryAlejandraAquino.jpg"</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -2924,9 +3066,8 @@
         <f t="shared" si="0"/>
         <v>RegaladoAquinoVi@gmail.com</v>
       </c>
-      <c r="G12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9712836224</v>
+      <c r="G12" t="s">
+        <v>231</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>173</v>
@@ -2938,8 +3079,8 @@
         <v>188</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Vicente","Aquino","Regalado",11/10/1999,"M","RegaladoAquinoVi@gmail.com","9712836224","direccion prueba","Juchitán","/directory/img-person/VicenteAquino.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Vicente","Aquino","Regalado",11/10/1999,"M","RegaladoAquinoVi@gmail.com","9712106115","direccion prueba","Juchitán","/directory/img-person/VicenteAquino.jpg"</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -2962,9 +3103,8 @@
         <f t="shared" si="0"/>
         <v>BenitezAranjoBa@gmail.com</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9718294495</v>
+      <c r="G13" t="s">
+        <v>232</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>173</v>
@@ -2976,8 +3116,8 @@
         <v>189</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Baudel","Aranjo","Benitez",03/12/1999,"M","BenitezAranjoBa@gmail.com","9718294495","direccion prueba","Espinal","/directory/img-person/BaudelAranjo.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Baudel","Aranjo","Benitez",03/12/1999,"M","BenitezAranjoBa@gmail.com","9717592062","direccion prueba","Espinal","/directory/img-person/BaudelAranjo.jpg"</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -3000,9 +3140,8 @@
         <f t="shared" si="0"/>
         <v>MoralesAvedañoYo@gmail.com</v>
       </c>
-      <c r="G14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9711830655</v>
+      <c r="G14" t="s">
+        <v>233</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>173</v>
@@ -3014,8 +3153,8 @@
         <v>201</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Yosmar Manuel","Avedaño","Morales",14/11/1999,"M","MoralesAvedañoYo@gmail.com","9711830655","direccion prueba","Ixtaltepec","/directory/img-person/YosmarManuelAvedaño.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Yosmar Manuel","Avedaño","Morales",14/11/1999,"M","MoralesAvedañoYo@gmail.com","9716019661","direccion prueba","Ixtaltepec","/directory/img-person/YosmarManuelAvedaño.jpg"</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -3038,9 +3177,8 @@
         <f t="shared" si="0"/>
         <v>MoralesBenefieldBr@gmail.com</v>
       </c>
-      <c r="G15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9718085542</v>
+      <c r="G15" t="s">
+        <v>234</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>173</v>
@@ -3052,8 +3190,8 @@
         <v>190</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Brian","Benefield","Morales",26/07/1999,"M","MoralesBenefieldBr@gmail.com","9718085542","direccion prueba","Unión Hidalgo","/directory/img-person/BrianBenefield.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Brian","Benefield","Morales",26/07/1999,"M","MoralesBenefieldBr@gmail.com","9714772466","direccion prueba","Unión Hidalgo","/directory/img-person/BrianBenefield.jpg"</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -3076,9 +3214,8 @@
         <f t="shared" si="0"/>
         <v>VelasquezZarateKe@gmail.com</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9714804363</v>
+      <c r="G16" t="s">
+        <v>235</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>173</v>
@@ -3090,8 +3227,8 @@
         <v>202</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Kevin Gabriel","Zarate","Velasquez",08/07/1998,"M","VelasquezZarateKe@gmail.com","9714804363","direccion prueba","Chicapa","/directory/img-person/KevinGabrielZarate.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Kevin Gabriel","Zarate","Velasquez",08/07/1998,"M","VelasquezZarateKe@gmail.com","9712498199","direccion prueba","Chicapa","/directory/img-person/KevinGabrielZarate.jpg"</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -3114,9 +3251,8 @@
         <f t="shared" si="0"/>
         <v>VillalobosZarateJe@gmail.com</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9716652321</v>
+      <c r="G17" t="s">
+        <v>236</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>173</v>
@@ -3128,8 +3264,8 @@
         <v>203</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Jesus Antonio","Zarate","Villalobos",23/04/1999,"M","VillalobosZarateJe@gmail.com","9716652321","direccion prueba","Juchitán","/directory/img-person/JesusAntonioZarate.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Jesus Antonio","Zarate","Villalobos",23/04/1999,"M","VillalobosZarateJe@gmail.com","9716213801","direccion prueba","Juchitán","/directory/img-person/JesusAntonioZarate.jpg"</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -3152,9 +3288,8 @@
         <f t="shared" si="0"/>
         <v>JiménezZavalaCl@gmail.com</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9713136729</v>
+      <c r="G18" t="s">
+        <v>237</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>173</v>
@@ -3166,8 +3301,8 @@
         <v>191</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Clarissa","Zavala","Jiménez",01/09/1999,"F","JiménezZavalaCl@gmail.com","9713136729","direccion prueba","Chicapa","/directory/img-person/ClarissaZavala.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Clarissa","Zavala","Jiménez",01/09/1999,"F","JiménezZavalaCl@gmail.com","9715339317","direccion prueba","Chicapa","/directory/img-person/ClarissaZavala.jpg"</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -3190,9 +3325,8 @@
         <f t="shared" si="0"/>
         <v>UlisesAguilarAl@gmail.com</v>
       </c>
-      <c r="G19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9713795592</v>
+      <c r="G19" t="s">
+        <v>238</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>173</v>
@@ -3204,8 +3338,8 @@
         <v>204</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Alba Beatriz","Aguilar","Ulises",03/06/1999,"F","UlisesAguilarAl@gmail.com","9713795592","direccion prueba","Ixtepec","/directory/img-person/AlbaBeatrizAguilar.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Alba Beatriz","Aguilar","Ulises",03/06/1999,"F","UlisesAguilarAl@gmail.com","9714414298","direccion prueba","Ixtepec","/directory/img-person/AlbaBeatrizAguilar.jpg"</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3228,9 +3362,8 @@
         <f t="shared" si="0"/>
         <v>de JesusFuentesLu@gmail.com</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9712832723</v>
+      <c r="G20" t="s">
+        <v>239</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>173</v>
@@ -3242,8 +3375,8 @@
         <v>192</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Luis","Fuentes","de Jesus",21/12/1999,"M","de JesusFuentesLu@gmail.com","9712832723","direccion prueba","Espinal","/directory/img-person/LuisFuentes.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Luis","Fuentes","de Jesus",21/12/1999,"M","de JesusFuentesLu@gmail.com","9713345356","direccion prueba","Espinal","/directory/img-person/LuisFuentes.jpg"</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3266,9 +3399,8 @@
         <f t="shared" si="0"/>
         <v>RosadoRevueltaMa@gmail.com</v>
       </c>
-      <c r="G21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9715824747</v>
+      <c r="G21" t="s">
+        <v>240</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>173</v>
@@ -3280,8 +3412,8 @@
         <v>193</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Maytor","Revuelta","Rosado",27/11/1999,"M","RosadoRevueltaMa@gmail.com","9715824747","direccion prueba","Juchitán","/directory/img-person/MaytorRevuelta.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Maytor","Revuelta","Rosado",27/11/1999,"M","RosadoRevueltaMa@gmail.com","9713195036","direccion prueba","Juchitán","/directory/img-person/MaytorRevuelta.jpg"</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -3304,9 +3436,8 @@
         <f t="shared" si="0"/>
         <v>LuisRoblesJo@gmail.com</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9719591540</v>
+      <c r="G22" t="s">
+        <v>241</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>173</v>
@@ -3318,8 +3449,8 @@
         <v>194</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Jorge","Robles","Luis",27/04/1999,"M","LuisRoblesJo@gmail.com","9719591540","direccion prueba","Tehuantepec","/directory/img-person/JorgeRobles.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Jorge","Robles","Luis",27/04/1999,"M","LuisRoblesJo@gmail.com","9714341427","direccion prueba","Tehuantepec","/directory/img-person/JorgeRobles.jpg"</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3342,9 +3473,8 @@
         <f t="shared" si="0"/>
         <v>EscobarRodasSe@gmail.com</v>
       </c>
-      <c r="G23" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9718285338</v>
+      <c r="G23" t="s">
+        <v>242</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>173</v>
@@ -3356,8 +3486,8 @@
         <v>195</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Sergio","Rodas","Escobar",27/11/1998,"M","EscobarRodasSe@gmail.com","9718285338","direccion prueba","Unión Hidalgo","/directory/img-person/SergioRodas.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Sergio","Rodas","Escobar",27/11/1998,"M","EscobarRodasSe@gmail.com","9713849923","direccion prueba","Unión Hidalgo","/directory/img-person/SergioRodas.jpg"</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3380,9 +3510,8 @@
         <f t="shared" si="0"/>
         <v>SanchezRuizBr@gmail.com</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9711479144</v>
+      <c r="G24" t="s">
+        <v>243</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>173</v>
@@ -3394,8 +3523,8 @@
         <v>205</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Brisa Donaji","Ruiz","Sanchez",08/01/1999,"F","SanchezRuizBr@gmail.com","9711479144","direccion prueba","Ixtaltepec","/directory/img-person/BrisaDonajiRuiz.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Brisa Donaji","Ruiz","Sanchez",08/01/1999,"F","SanchezRuizBr@gmail.com","9716521066","direccion prueba","Ixtaltepec","/directory/img-person/BrisaDonajiRuiz.jpg"</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3418,9 +3547,8 @@
         <f t="shared" si="0"/>
         <v>VicenteRuizJa@gmail.com</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9717657524</v>
+      <c r="G25" t="s">
+        <v>244</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>173</v>
@@ -3432,8 +3560,8 @@
         <v>206</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("Jair Michael","Ruiz","Vicente",12/10/1999,"M","VicenteRuizJa@gmail.com","9717657524","direccion prueba","Tehuantepec","/directory/img-person/JairMichaelRuiz.jpg"</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Jair Michael","Ruiz","Vicente",12/10/1999,"M","VicenteRuizJa@gmail.com","9715469345","direccion prueba","Tehuantepec","/directory/img-person/JairMichaelRuiz.jpg"</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3453,12 +3581,11 @@
         <v>182</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(B26,A26,LEFT(C26,2),"@gmail.com")</f>
         <v>LopezGonzalesJo@gmail.com</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9714045796</v>
+      <c r="G26" t="s">
+        <v>245</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>173</v>
@@ -3470,11 +3597,205 @@
         <v>207</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO 'persona' VALUES ("José Guillermo","Gonzales","Lopez",22/01/1999,"M","LopezGonzalesJo@gmail.com","9714045796","direccion prueba","Juchitán","/directory/img-person/JoséGuillermoGonzales.jpg"</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("José Guillermo","Gonzales","Lopez",22/01/1999,"M","LopezGonzalesJo@gmail.com","9711561046","direccion prueba","Juchitán","/directory/img-person/JoséGuillermoGonzales.jpg"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="10">
+        <v>36097</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>246</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" t="s">
+        <v>251</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Francisco","Santiago","de la Cruz",29/10/1998,"M","CruzSantiagoFr@gmail.com","9711744464","direccion prueba","Juchitán","/directory/img-person/FranciscoSantiago.jpg"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="10">
+        <v>35888</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>ParadaRoblesLu@gmail.com</v>
+      </c>
+      <c r="G28" t="s">
+        <v>247</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Luis Alberto","Robles","Parada",03/04/1998,"M","ParadaRoblesLu@gmail.com","9719614394","direccion prueba","Tehuantepec","/directory/img-person/Luis AlbertoRobles.jpg"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="10">
+        <v>35888</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>PiñonFernándezJu@gmail.com</v>
+      </c>
+      <c r="G29" t="s">
+        <v>248</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Juan Carlos","Fernández","Piñon",03/04/1998,"M","PiñonFernándezJu@gmail.com","9715787642","direccion prueba","Ixtepec","/directory/img-person/Juan CarlosFernández.jpg"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="10">
+        <v>36129</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>CouderEnríquezEm@gmail.com</v>
+      </c>
+      <c r="G30" t="s">
+        <v>249</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Emanuel","Enríquez","Couder",30/11/1998,"M","CouderEnríquezEm@gmail.com","9719665488","direccion prueba","Guevea","/directory/img-person/EmanuelEnríquez.jpg"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="10">
+        <v>35969</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>FuentesToledoHu@gmail.com</v>
+      </c>
+      <c r="G31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" t="s">
+        <v>176</v>
+      </c>
+      <c r="J31" t="s">
+        <v>255</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO 'persona' VALUES ("Humberto","Toledo","Fuentes",23/06/1998,"M","FuentesToledoHu@gmail.com","9718507158","direccion prueba","Ixtepec","/directory/img-person/HumbertoToledo.jpg"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F27" r:id="rId1" xr:uid="{D7FDBF33-5E2F-4791-86B6-03B202663455}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/extras/datos/captura datos Ing Sistemas FRANCISCO.xlsx
+++ b/extras/datos/captura datos Ing Sistemas FRANCISCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tutorias\extras\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574BC9C2-C840-43A9-AC1A-0AA579D2EE7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FFD0A6-9384-4780-987E-6128CC1B0676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{23017515-5504-4510-AD65-535B5F72485F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="286">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -800,6 +800,96 @@
   </si>
   <si>
     <t>/directory/img-person/HumbertoToledo.jpg</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Usmar Isacc","Miguel","Lopez",16/10/1999,"M","LopezMiguelUs@gmail.com","9717995120","direccion prueba","Ixtepec","/directory/img-person/UsmarIsaccMiguel.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Giovanni Alexander","Morales","Lopez",11/04/1999,"M","LopezMoralesGi@gmail.com","9714324512","direccion prueba","Ixtaltepec","/directory/img-person/GiovanniAlexanderMorales.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Roel","Morales","Orozco",06/05/1998,"M","OrozcoMoralesRo@gmail.com","9714860957","direccion prueba","Juchitán","/directory/img-person/RoelMorales.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Karina","Nuñez","Silva",07/05/1999,"F","SilvaNuñezKa@gmail.com","9712623032","direccion prueba","Ixtepec","/directory/img-person/KarinaNuñez.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Kenia","Orozco","Cruz",31/10/1999,"F","CruzOrozcoKe@gmail.com","9712793311","direccion prueba","Salina Cruz","/directory/img-person/KeniaOrozco.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Dennis Sabas","Orozco","Bautista",23/01/1999,"F","BautistaOrozcoDe@gmail.com","9713721570","direccion prueba","Juchitán","/directory/img-person/DennisSabasOrozco.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Carlos Roberto","Ortiz","Matus",17/05/1999,"M","MatusOrtizCa@gmail.com","9718332712","direccion prueba","Salina Cruz","/directory/img-person/CarlosRobertoOrtiz.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Isis Yamile","Altamirano","Solano",03/05/1998,"F","SolanoAltamiranoIs@gmail.com","9718259758","direccion prueba","Ixtepec","/directory/img-person/IsisYamileAltamirano.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Fátima","Antinio","Sanchez",08/01/1999,"F","SanchezAntinioFá@gmail.com","9716330120","direccion prueba","Juchitán","/directory/img-person/FátimaAntinio.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Itzury Alejandra","Aquino","Cruz",27/12/1999,"F","CruzAquinoIt@gmail.com","9716802586","direccion prueba","Chicapa","/directory/img-person/ItzuryAlejandraAquino.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Vicente","Aquino","Regalado",11/10/1999,"M","RegaladoAquinoVi@gmail.com","9712106115","direccion prueba","Juchitán","/directory/img-person/VicenteAquino.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Baudel","Aranjo","Benitez",03/12/1999,"M","BenitezAranjoBa@gmail.com","9717592062","direccion prueba","Espinal","/directory/img-person/BaudelAranjo.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Yosmar Manuel","Avedaño","Morales",14/11/1999,"M","MoralesAvedañoYo@gmail.com","9716019661","direccion prueba","Ixtaltepec","/directory/img-person/YosmarManuelAvedaño.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Brian","Benefield","Morales",26/07/1999,"M","MoralesBenefieldBr@gmail.com","9714772466","direccion prueba","Unión Hidalgo","/directory/img-person/BrianBenefield.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Kevin Gabriel","Zarate","Velasquez",08/07/1998,"M","VelasquezZarateKe@gmail.com","9712498199","direccion prueba","Chicapa","/directory/img-person/KevinGabrielZarate.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Jesus Antonio","Zarate","Villalobos",23/04/1999,"M","VillalobosZarateJe@gmail.com","9716213801","direccion prueba","Juchitán","/directory/img-person/JesusAntonioZarate.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Clarissa","Zavala","Jiménez",01/09/1999,"F","JiménezZavalaCl@gmail.com","9715339317","direccion prueba","Chicapa","/directory/img-person/ClarissaZavala.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Alba Beatriz","Aguilar","Ulises",03/06/1999,"F","UlisesAguilarAl@gmail.com","9714414298","direccion prueba","Ixtepec","/directory/img-person/AlbaBeatrizAguilar.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Luis","Fuentes","de Jesus",21/12/1999,"M","de JesusFuentesLu@gmail.com","9713345356","direccion prueba","Espinal","/directory/img-person/LuisFuentes.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Maytor","Revuelta","Rosado",27/11/1999,"M","RosadoRevueltaMa@gmail.com","9713195036","direccion prueba","Juchitán","/directory/img-person/MaytorRevuelta.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Jorge","Robles","Luis",27/04/1999,"M","LuisRoblesJo@gmail.com","9714341427","direccion prueba","Tehuantepec","/directory/img-person/JorgeRobles.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Sergio","Rodas","Escobar",27/11/1998,"M","EscobarRodasSe@gmail.com","9713849923","direccion prueba","Unión Hidalgo","/directory/img-person/SergioRodas.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Brisa Donaji","Ruiz","Sanchez",08/01/1999,"F","SanchezRuizBr@gmail.com","9716521066","direccion prueba","Ixtaltepec","/directory/img-person/BrisaDonajiRuiz.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Jair Michael","Ruiz","Vicente",12/10/1999,"M","VicenteRuizJa@gmail.com","9715469345","direccion prueba","Tehuantepec","/directory/img-person/JairMichaelRuiz.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("José Guillermo","Gonzales","Lopez",22/01/1999,"M","LopezGonzalesJo@gmail.com","9711561046","direccion prueba","Juchitán","/directory/img-person/JoséGuillermoGonzales.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Francisco","Santiago","de la Cruz",29/10/1998,"M","CruzSantiagoFr@gmail.com","9711744464","direccion prueba","Juchitán","/directory/img-person/FranciscoSantiago.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Luis Alberto","Robles","Parada",03/04/1998,"M","ParadaRoblesLu@gmail.com","9719614394","direccion prueba","Tehuantepec","/directory/img-person/Luis AlbertoRobles.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Juan Carlos","Fernández","Piñon",03/04/1998,"M","PiñonFernándezJu@gmail.com","9715787642","direccion prueba","Ixtepec","/directory/img-person/Juan CarlosFernández.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Emanuel","Enríquez","Couder",30/11/1998,"M","CouderEnríquezEm@gmail.com","9719665488","direccion prueba","Guevea","/directory/img-person/EmanuelEnríquez.jpg"</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'persona' VALUES ("Humberto","Toledo","Fuentes",23/06/1998,"M","FuentesToledoHu@gmail.com","9718507158","direccion prueba","Ixtepec","/directory/img-person/HumbertoToledo.jpg"</t>
   </si>
 </sst>
 </file>
@@ -2621,7 +2711,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="L2" sqref="L2:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2703,9 +2793,8 @@
       <c r="J2" t="s">
         <v>209</v>
       </c>
-      <c r="L2" t="str">
-        <f>CONCATENATE("INSERT INTO 'persona' VALUES (",$S$2,C2,$S$2,",",$S$2,A2,$S$2,",",$S$2,B2,$S$2,",",TEXT(D2,"dd/mm/aaaa"),",",$S$2,E2,$S$2,",",$S$2,F2,$S$2,",",$S$2,G2,$S$2,",",$S$2,H2,$S$2,",",$S$2,I2,$S$2,",",$S$2,J2,$S$2)</f>
-        <v>INSERT INTO 'persona' VALUES ("Usmar Isacc","Miguel","Lopez",16/10/1999,"M","LopezMiguelUs@gmail.com","9717995120","direccion prueba","Ixtepec","/directory/img-person/UsmarIsaccMiguel.jpg"</v>
+      <c r="L2" t="s">
+        <v>256</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -2730,7 +2819,7 @@
         <v>182</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F32" si="0">CONCATENATE(B3,A3,LEFT(C3,2),"@gmail.com")</f>
+        <f t="shared" ref="F3:F31" si="0">CONCATENATE(B3,A3,LEFT(C3,2),"@gmail.com")</f>
         <v>LopezMoralesGi@gmail.com</v>
       </c>
       <c r="G3" t="s">
@@ -2745,9 +2834,8 @@
       <c r="J3" t="s">
         <v>196</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L32" si="1">CONCATENATE("INSERT INTO 'persona' VALUES (",$S$2,C3,$S$2,",",$S$2,A3,$S$2,",",$S$2,B3,$S$2,",",TEXT(D3,"dd/mm/aaaa"),",",$S$2,E3,$S$2,",",$S$2,F3,$S$2,",",$S$2,G3,$S$2,",",$S$2,H3,$S$2,",",$S$2,I3,$S$2,",",$S$2,J3,$S$2)</f>
-        <v>INSERT INTO 'persona' VALUES ("Giovanni Alexander","Morales","Lopez",11/04/1999,"M","LopezMoralesGi@gmail.com","9714324512","direccion prueba","Ixtaltepec","/directory/img-person/GiovanniAlexanderMorales.jpg"</v>
+      <c r="L3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -2782,9 +2870,8 @@
       <c r="J4" t="s">
         <v>184</v>
       </c>
-      <c r="L4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Roel","Morales","Orozco",06/05/1998,"M","OrozcoMoralesRo@gmail.com","9714860957","direccion prueba","Juchitán","/directory/img-person/RoelMorales.jpg"</v>
+      <c r="L4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -2819,9 +2906,8 @@
       <c r="J5" t="s">
         <v>185</v>
       </c>
-      <c r="L5" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Karina","Nuñez","Silva",07/05/1999,"F","SilvaNuñezKa@gmail.com","9712623032","direccion prueba","Ixtepec","/directory/img-person/KarinaNuñez.jpg"</v>
+      <c r="L5" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2856,9 +2942,8 @@
       <c r="J6" t="s">
         <v>186</v>
       </c>
-      <c r="L6" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Kenia","Orozco","Cruz",31/10/1999,"F","CruzOrozcoKe@gmail.com","9712793311","direccion prueba","Salina Cruz","/directory/img-person/KeniaOrozco.jpg"</v>
+      <c r="L6" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2893,9 +2978,8 @@
       <c r="J7" t="s">
         <v>197</v>
       </c>
-      <c r="L7" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Dennis Sabas","Orozco","Bautista",23/01/1999,"F","BautistaOrozcoDe@gmail.com","9713721570","direccion prueba","Juchitán","/directory/img-person/DennisSabasOrozco.jpg"</v>
+      <c r="L7" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2930,9 +3014,8 @@
       <c r="J8" t="s">
         <v>198</v>
       </c>
-      <c r="L8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Carlos Roberto","Ortiz","Matus",17/05/1999,"M","MatusOrtizCa@gmail.com","9718332712","direccion prueba","Salina Cruz","/directory/img-person/CarlosRobertoOrtiz.jpg"</v>
+      <c r="L8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -2967,9 +3050,8 @@
       <c r="J9" t="s">
         <v>199</v>
       </c>
-      <c r="L9" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Isis Yamile","Altamirano","Solano",03/05/1998,"F","SolanoAltamiranoIs@gmail.com","9718259758","direccion prueba","Ixtepec","/directory/img-person/IsisYamileAltamirano.jpg"</v>
+      <c r="L9" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -3004,9 +3086,8 @@
       <c r="J10" t="s">
         <v>187</v>
       </c>
-      <c r="L10" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Fátima","Antinio","Sanchez",08/01/1999,"F","SanchezAntinioFá@gmail.com","9716330120","direccion prueba","Juchitán","/directory/img-person/FátimaAntinio.jpg"</v>
+      <c r="L10" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -3041,9 +3122,8 @@
       <c r="J11" t="s">
         <v>200</v>
       </c>
-      <c r="L11" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Itzury Alejandra","Aquino","Cruz",27/12/1999,"F","CruzAquinoIt@gmail.com","9716802586","direccion prueba","Chicapa","/directory/img-person/ItzuryAlejandraAquino.jpg"</v>
+      <c r="L11" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -3078,9 +3158,8 @@
       <c r="J12" t="s">
         <v>188</v>
       </c>
-      <c r="L12" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Vicente","Aquino","Regalado",11/10/1999,"M","RegaladoAquinoVi@gmail.com","9712106115","direccion prueba","Juchitán","/directory/img-person/VicenteAquino.jpg"</v>
+      <c r="L12" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -3115,9 +3194,8 @@
       <c r="J13" t="s">
         <v>189</v>
       </c>
-      <c r="L13" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Baudel","Aranjo","Benitez",03/12/1999,"M","BenitezAranjoBa@gmail.com","9717592062","direccion prueba","Espinal","/directory/img-person/BaudelAranjo.jpg"</v>
+      <c r="L13" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -3152,9 +3230,8 @@
       <c r="J14" t="s">
         <v>201</v>
       </c>
-      <c r="L14" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Yosmar Manuel","Avedaño","Morales",14/11/1999,"M","MoralesAvedañoYo@gmail.com","9716019661","direccion prueba","Ixtaltepec","/directory/img-person/YosmarManuelAvedaño.jpg"</v>
+      <c r="L14" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -3189,9 +3266,8 @@
       <c r="J15" t="s">
         <v>190</v>
       </c>
-      <c r="L15" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Brian","Benefield","Morales",26/07/1999,"M","MoralesBenefieldBr@gmail.com","9714772466","direccion prueba","Unión Hidalgo","/directory/img-person/BrianBenefield.jpg"</v>
+      <c r="L15" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -3226,9 +3302,8 @@
       <c r="J16" t="s">
         <v>202</v>
       </c>
-      <c r="L16" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Kevin Gabriel","Zarate","Velasquez",08/07/1998,"M","VelasquezZarateKe@gmail.com","9712498199","direccion prueba","Chicapa","/directory/img-person/KevinGabrielZarate.jpg"</v>
+      <c r="L16" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -3263,9 +3338,8 @@
       <c r="J17" t="s">
         <v>203</v>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Jesus Antonio","Zarate","Villalobos",23/04/1999,"M","VillalobosZarateJe@gmail.com","9716213801","direccion prueba","Juchitán","/directory/img-person/JesusAntonioZarate.jpg"</v>
+      <c r="L17" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -3300,9 +3374,8 @@
       <c r="J18" t="s">
         <v>191</v>
       </c>
-      <c r="L18" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Clarissa","Zavala","Jiménez",01/09/1999,"F","JiménezZavalaCl@gmail.com","9715339317","direccion prueba","Chicapa","/directory/img-person/ClarissaZavala.jpg"</v>
+      <c r="L18" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -3337,9 +3410,8 @@
       <c r="J19" t="s">
         <v>204</v>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Alba Beatriz","Aguilar","Ulises",03/06/1999,"F","UlisesAguilarAl@gmail.com","9714414298","direccion prueba","Ixtepec","/directory/img-person/AlbaBeatrizAguilar.jpg"</v>
+      <c r="L19" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3374,9 +3446,8 @@
       <c r="J20" t="s">
         <v>192</v>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Luis","Fuentes","de Jesus",21/12/1999,"M","de JesusFuentesLu@gmail.com","9713345356","direccion prueba","Espinal","/directory/img-person/LuisFuentes.jpg"</v>
+      <c r="L20" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3411,9 +3482,8 @@
       <c r="J21" t="s">
         <v>193</v>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Maytor","Revuelta","Rosado",27/11/1999,"M","RosadoRevueltaMa@gmail.com","9713195036","direccion prueba","Juchitán","/directory/img-person/MaytorRevuelta.jpg"</v>
+      <c r="L21" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -3448,9 +3518,8 @@
       <c r="J22" t="s">
         <v>194</v>
       </c>
-      <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Jorge","Robles","Luis",27/04/1999,"M","LuisRoblesJo@gmail.com","9714341427","direccion prueba","Tehuantepec","/directory/img-person/JorgeRobles.jpg"</v>
+      <c r="L22" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3485,9 +3554,8 @@
       <c r="J23" t="s">
         <v>195</v>
       </c>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Sergio","Rodas","Escobar",27/11/1998,"M","EscobarRodasSe@gmail.com","9713849923","direccion prueba","Unión Hidalgo","/directory/img-person/SergioRodas.jpg"</v>
+      <c r="L23" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3522,9 +3590,8 @@
       <c r="J24" t="s">
         <v>205</v>
       </c>
-      <c r="L24" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Brisa Donaji","Ruiz","Sanchez",08/01/1999,"F","SanchezRuizBr@gmail.com","9716521066","direccion prueba","Ixtaltepec","/directory/img-person/BrisaDonajiRuiz.jpg"</v>
+      <c r="L24" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3559,9 +3626,8 @@
       <c r="J25" t="s">
         <v>206</v>
       </c>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Jair Michael","Ruiz","Vicente",12/10/1999,"M","VicenteRuizJa@gmail.com","9715469345","direccion prueba","Tehuantepec","/directory/img-person/JairMichaelRuiz.jpg"</v>
+      <c r="L25" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3596,9 +3662,8 @@
       <c r="J26" t="s">
         <v>207</v>
       </c>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("José Guillermo","Gonzales","Lopez",22/01/1999,"M","LopezGonzalesJo@gmail.com","9711561046","direccion prueba","Juchitán","/directory/img-person/JoséGuillermoGonzales.jpg"</v>
+      <c r="L26" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -3632,9 +3697,8 @@
       <c r="J27" t="s">
         <v>251</v>
       </c>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Francisco","Santiago","de la Cruz",29/10/1998,"M","CruzSantiagoFr@gmail.com","9711744464","direccion prueba","Juchitán","/directory/img-person/FranciscoSantiago.jpg"</v>
+      <c r="L27" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3669,9 +3733,8 @@
       <c r="J28" t="s">
         <v>252</v>
       </c>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Luis Alberto","Robles","Parada",03/04/1998,"M","ParadaRoblesLu@gmail.com","9719614394","direccion prueba","Tehuantepec","/directory/img-person/Luis AlbertoRobles.jpg"</v>
+      <c r="L28" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3706,9 +3769,8 @@
       <c r="J29" t="s">
         <v>253</v>
       </c>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Juan Carlos","Fernández","Piñon",03/04/1998,"M","PiñonFernándezJu@gmail.com","9715787642","direccion prueba","Ixtepec","/directory/img-person/Juan CarlosFernández.jpg"</v>
+      <c r="L29" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -3743,9 +3805,8 @@
       <c r="J30" t="s">
         <v>254</v>
       </c>
-      <c r="L30" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Emanuel","Enríquez","Couder",30/11/1998,"M","CouderEnríquezEm@gmail.com","9719665488","direccion prueba","Guevea","/directory/img-person/EmanuelEnríquez.jpg"</v>
+      <c r="L30" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -3780,9 +3841,8 @@
       <c r="J31" t="s">
         <v>255</v>
       </c>
-      <c r="L31" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO 'persona' VALUES ("Humberto","Toledo","Fuentes",23/06/1998,"M","FuentesToledoHu@gmail.com","9718507158","direccion prueba","Ixtepec","/directory/img-person/HumbertoToledo.jpg"</v>
+      <c r="L31" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">

--- a/extras/datos/captura datos Ing Sistemas FRANCISCO.xlsx
+++ b/extras/datos/captura datos Ing Sistemas FRANCISCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tutorias\extras\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FFD0A6-9384-4780-987E-6128CC1B0676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC309468-BE5D-46B3-BBE7-D7AE07ACD0FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{23017515-5504-4510-AD65-535B5F72485F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="256">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -658,9 +658,6 @@
     <t>/directory/img-person/JoséGuillermoGonzales.jpg</t>
   </si>
   <si>
-    <t>"</t>
-  </si>
-  <si>
     <t>/directory/img-person/UsmarIsaccMiguel.jpg</t>
   </si>
   <si>
@@ -802,94 +799,7 @@
     <t>/directory/img-person/HumbertoToledo.jpg</t>
   </si>
   <si>
-    <t>INSERT INTO 'persona' VALUES ("Usmar Isacc","Miguel","Lopez",16/10/1999,"M","LopezMiguelUs@gmail.com","9717995120","direccion prueba","Ixtepec","/directory/img-person/UsmarIsaccMiguel.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Giovanni Alexander","Morales","Lopez",11/04/1999,"M","LopezMoralesGi@gmail.com","9714324512","direccion prueba","Ixtaltepec","/directory/img-person/GiovanniAlexanderMorales.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Roel","Morales","Orozco",06/05/1998,"M","OrozcoMoralesRo@gmail.com","9714860957","direccion prueba","Juchitán","/directory/img-person/RoelMorales.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Karina","Nuñez","Silva",07/05/1999,"F","SilvaNuñezKa@gmail.com","9712623032","direccion prueba","Ixtepec","/directory/img-person/KarinaNuñez.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Kenia","Orozco","Cruz",31/10/1999,"F","CruzOrozcoKe@gmail.com","9712793311","direccion prueba","Salina Cruz","/directory/img-person/KeniaOrozco.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Dennis Sabas","Orozco","Bautista",23/01/1999,"F","BautistaOrozcoDe@gmail.com","9713721570","direccion prueba","Juchitán","/directory/img-person/DennisSabasOrozco.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Carlos Roberto","Ortiz","Matus",17/05/1999,"M","MatusOrtizCa@gmail.com","9718332712","direccion prueba","Salina Cruz","/directory/img-person/CarlosRobertoOrtiz.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Isis Yamile","Altamirano","Solano",03/05/1998,"F","SolanoAltamiranoIs@gmail.com","9718259758","direccion prueba","Ixtepec","/directory/img-person/IsisYamileAltamirano.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Fátima","Antinio","Sanchez",08/01/1999,"F","SanchezAntinioFá@gmail.com","9716330120","direccion prueba","Juchitán","/directory/img-person/FátimaAntinio.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Itzury Alejandra","Aquino","Cruz",27/12/1999,"F","CruzAquinoIt@gmail.com","9716802586","direccion prueba","Chicapa","/directory/img-person/ItzuryAlejandraAquino.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Vicente","Aquino","Regalado",11/10/1999,"M","RegaladoAquinoVi@gmail.com","9712106115","direccion prueba","Juchitán","/directory/img-person/VicenteAquino.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Baudel","Aranjo","Benitez",03/12/1999,"M","BenitezAranjoBa@gmail.com","9717592062","direccion prueba","Espinal","/directory/img-person/BaudelAranjo.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Yosmar Manuel","Avedaño","Morales",14/11/1999,"M","MoralesAvedañoYo@gmail.com","9716019661","direccion prueba","Ixtaltepec","/directory/img-person/YosmarManuelAvedaño.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Brian","Benefield","Morales",26/07/1999,"M","MoralesBenefieldBr@gmail.com","9714772466","direccion prueba","Unión Hidalgo","/directory/img-person/BrianBenefield.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Kevin Gabriel","Zarate","Velasquez",08/07/1998,"M","VelasquezZarateKe@gmail.com","9712498199","direccion prueba","Chicapa","/directory/img-person/KevinGabrielZarate.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Jesus Antonio","Zarate","Villalobos",23/04/1999,"M","VillalobosZarateJe@gmail.com","9716213801","direccion prueba","Juchitán","/directory/img-person/JesusAntonioZarate.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Clarissa","Zavala","Jiménez",01/09/1999,"F","JiménezZavalaCl@gmail.com","9715339317","direccion prueba","Chicapa","/directory/img-person/ClarissaZavala.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Alba Beatriz","Aguilar","Ulises",03/06/1999,"F","UlisesAguilarAl@gmail.com","9714414298","direccion prueba","Ixtepec","/directory/img-person/AlbaBeatrizAguilar.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Luis","Fuentes","de Jesus",21/12/1999,"M","de JesusFuentesLu@gmail.com","9713345356","direccion prueba","Espinal","/directory/img-person/LuisFuentes.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Maytor","Revuelta","Rosado",27/11/1999,"M","RosadoRevueltaMa@gmail.com","9713195036","direccion prueba","Juchitán","/directory/img-person/MaytorRevuelta.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Jorge","Robles","Luis",27/04/1999,"M","LuisRoblesJo@gmail.com","9714341427","direccion prueba","Tehuantepec","/directory/img-person/JorgeRobles.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Sergio","Rodas","Escobar",27/11/1998,"M","EscobarRodasSe@gmail.com","9713849923","direccion prueba","Unión Hidalgo","/directory/img-person/SergioRodas.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Brisa Donaji","Ruiz","Sanchez",08/01/1999,"F","SanchezRuizBr@gmail.com","9716521066","direccion prueba","Ixtaltepec","/directory/img-person/BrisaDonajiRuiz.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Jair Michael","Ruiz","Vicente",12/10/1999,"M","VicenteRuizJa@gmail.com","9715469345","direccion prueba","Tehuantepec","/directory/img-person/JairMichaelRuiz.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("José Guillermo","Gonzales","Lopez",22/01/1999,"M","LopezGonzalesJo@gmail.com","9711561046","direccion prueba","Juchitán","/directory/img-person/JoséGuillermoGonzales.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Francisco","Santiago","de la Cruz",29/10/1998,"M","CruzSantiagoFr@gmail.com","9711744464","direccion prueba","Juchitán","/directory/img-person/FranciscoSantiago.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Luis Alberto","Robles","Parada",03/04/1998,"M","ParadaRoblesLu@gmail.com","9719614394","direccion prueba","Tehuantepec","/directory/img-person/Luis AlbertoRobles.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Juan Carlos","Fernández","Piñon",03/04/1998,"M","PiñonFernándezJu@gmail.com","9715787642","direccion prueba","Ixtepec","/directory/img-person/Juan CarlosFernández.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Emanuel","Enríquez","Couder",30/11/1998,"M","CouderEnríquezEm@gmail.com","9719665488","direccion prueba","Guevea","/directory/img-person/EmanuelEnríquez.jpg"</t>
-  </si>
-  <si>
-    <t>INSERT INTO 'persona' VALUES ("Humberto","Toledo","Fuentes",23/06/1998,"M","FuentesToledoHu@gmail.com","9718507158","direccion prueba","Ixtepec","/directory/img-person/HumbertoToledo.jpg"</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -973,7 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -997,6 +907,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2782,7 +2693,7 @@
         <v>LopezMiguelUs@gmail.com</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>173</v>
@@ -2791,15 +2702,16 @@
         <v>176</v>
       </c>
       <c r="J2" t="s">
-        <v>209</v>
-      </c>
-      <c r="L2" t="s">
-        <v>256</v>
+        <v>208</v>
+      </c>
+      <c r="L2" t="str">
+        <f>CONCATENATE("INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('",$S$2,C2,$S$2,"','",$S$2,A2,$S$2,"','",$S$2,B2,$S$2,"',",TEXT(D2,"aaaa-mm-dd"),",'",$S$2,E2,$S$2,"','",$S$2,F2,$S$2,"','",$S$2,G2,$S$2,"','",$S$2,H2,$S$2,"','",$S$2,I2,$S$2,"','",$S$2,J2,$S$2,"');")</f>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Usmar Isacc','Miguel','Lopez',1999-10-16,'M','LopezMiguelUs@gmail.com','9717995120','direccion prueba','Ixtepec','/directory/img-person/UsmarIsaccMiguel.jpg');</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
-      <c r="S2" t="s">
-        <v>208</v>
+      <c r="S2" s="11" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -2823,7 +2735,7 @@
         <v>LopezMoralesGi@gmail.com</v>
       </c>
       <c r="G3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>173</v>
@@ -2834,8 +2746,9 @@
       <c r="J3" t="s">
         <v>196</v>
       </c>
-      <c r="L3" t="s">
-        <v>257</v>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L31" si="1">CONCATENATE("INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('",$S$2,C3,$S$2,"','",$S$2,A3,$S$2,"','",$S$2,B3,$S$2,"',",TEXT(D3,"aaaa-mm-dd"),",'",$S$2,E3,$S$2,"','",$S$2,F3,$S$2,"','",$S$2,G3,$S$2,"','",$S$2,H3,$S$2,"','",$S$2,I3,$S$2,"','",$S$2,J3,$S$2,"');")</f>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Giovanni Alexander','Morales','Lopez',1999-04-11,'M','LopezMoralesGi@gmail.com','9714324512','direccion prueba','Ixtaltepec','/directory/img-person/GiovanniAlexanderMorales.jpg');</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -2859,7 +2772,7 @@
         <v>OrozcoMoralesRo@gmail.com</v>
       </c>
       <c r="G4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>173</v>
@@ -2870,8 +2783,9 @@
       <c r="J4" t="s">
         <v>184</v>
       </c>
-      <c r="L4" t="s">
-        <v>258</v>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Roel','Morales','Orozco',1998-05-06,'M','OrozcoMoralesRo@gmail.com','9714860957','direccion prueba','Juchitán','/directory/img-person/RoelMorales.jpg');</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -2895,7 +2809,7 @@
         <v>SilvaNuñezKa@gmail.com</v>
       </c>
       <c r="G5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>173</v>
@@ -2906,8 +2820,9 @@
       <c r="J5" t="s">
         <v>185</v>
       </c>
-      <c r="L5" t="s">
-        <v>259</v>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Karina','Nuñez','Silva',1999-05-07,'F','SilvaNuñezKa@gmail.com','9712623032','direccion prueba','Ixtepec','/directory/img-person/KarinaNuñez.jpg');</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2931,7 +2846,7 @@
         <v>CruzOrozcoKe@gmail.com</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>173</v>
@@ -2942,8 +2857,9 @@
       <c r="J6" t="s">
         <v>186</v>
       </c>
-      <c r="L6" t="s">
-        <v>260</v>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Kenia','Orozco','Cruz',1999-10-31,'F','CruzOrozcoKe@gmail.com','9712793311','direccion prueba','Salina Cruz','/directory/img-person/KeniaOrozco.jpg');</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2967,7 +2883,7 @@
         <v>BautistaOrozcoDe@gmail.com</v>
       </c>
       <c r="G7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>173</v>
@@ -2978,8 +2894,9 @@
       <c r="J7" t="s">
         <v>197</v>
       </c>
-      <c r="L7" t="s">
-        <v>261</v>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Dennis Sabas','Orozco','Bautista',1999-01-23,'F','BautistaOrozcoDe@gmail.com','9713721570','direccion prueba','Juchitán','/directory/img-person/DennisSabasOrozco.jpg');</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -3003,7 +2920,7 @@
         <v>MatusOrtizCa@gmail.com</v>
       </c>
       <c r="G8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>173</v>
@@ -3014,8 +2931,9 @@
       <c r="J8" t="s">
         <v>198</v>
       </c>
-      <c r="L8" t="s">
-        <v>262</v>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Carlos Roberto','Ortiz','Matus',1999-05-17,'M','MatusOrtizCa@gmail.com','9718332712','direccion prueba','Salina Cruz','/directory/img-person/CarlosRobertoOrtiz.jpg');</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -3039,7 +2957,7 @@
         <v>SolanoAltamiranoIs@gmail.com</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>173</v>
@@ -3050,8 +2968,9 @@
       <c r="J9" t="s">
         <v>199</v>
       </c>
-      <c r="L9" t="s">
-        <v>263</v>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Isis Yamile','Altamirano','Solano',1998-05-03,'F','SolanoAltamiranoIs@gmail.com','9718259758','direccion prueba','Ixtepec','/directory/img-person/IsisYamileAltamirano.jpg');</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -3075,7 +2994,7 @@
         <v>SanchezAntinioFá@gmail.com</v>
       </c>
       <c r="G10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>173</v>
@@ -3086,8 +3005,9 @@
       <c r="J10" t="s">
         <v>187</v>
       </c>
-      <c r="L10" t="s">
-        <v>264</v>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Fátima','Antinio','Sanchez',1999-01-08,'F','SanchezAntinioFá@gmail.com','9716330120','direccion prueba','Juchitán','/directory/img-person/FátimaAntinio.jpg');</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -3111,7 +3031,7 @@
         <v>CruzAquinoIt@gmail.com</v>
       </c>
       <c r="G11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>173</v>
@@ -3122,8 +3042,9 @@
       <c r="J11" t="s">
         <v>200</v>
       </c>
-      <c r="L11" t="s">
-        <v>265</v>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Itzury Alejandra','Aquino','Cruz',1999-12-27,'F','CruzAquinoIt@gmail.com','9716802586','direccion prueba','Chicapa','/directory/img-person/ItzuryAlejandraAquino.jpg');</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -3147,7 +3068,7 @@
         <v>RegaladoAquinoVi@gmail.com</v>
       </c>
       <c r="G12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>173</v>
@@ -3158,8 +3079,9 @@
       <c r="J12" t="s">
         <v>188</v>
       </c>
-      <c r="L12" t="s">
-        <v>266</v>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Vicente','Aquino','Regalado',1999-10-11,'M','RegaladoAquinoVi@gmail.com','9712106115','direccion prueba','Juchitán','/directory/img-person/VicenteAquino.jpg');</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -3183,7 +3105,7 @@
         <v>BenitezAranjoBa@gmail.com</v>
       </c>
       <c r="G13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>173</v>
@@ -3194,8 +3116,9 @@
       <c r="J13" t="s">
         <v>189</v>
       </c>
-      <c r="L13" t="s">
-        <v>267</v>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Baudel','Aranjo','Benitez',1999-12-03,'M','BenitezAranjoBa@gmail.com','9717592062','direccion prueba','Espinal','/directory/img-person/BaudelAranjo.jpg');</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -3219,7 +3142,7 @@
         <v>MoralesAvedañoYo@gmail.com</v>
       </c>
       <c r="G14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>173</v>
@@ -3230,8 +3153,9 @@
       <c r="J14" t="s">
         <v>201</v>
       </c>
-      <c r="L14" t="s">
-        <v>268</v>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Yosmar Manuel','Avedaño','Morales',1999-11-14,'M','MoralesAvedañoYo@gmail.com','9716019661','direccion prueba','Ixtaltepec','/directory/img-person/YosmarManuelAvedaño.jpg');</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -3255,7 +3179,7 @@
         <v>MoralesBenefieldBr@gmail.com</v>
       </c>
       <c r="G15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>173</v>
@@ -3266,8 +3190,9 @@
       <c r="J15" t="s">
         <v>190</v>
       </c>
-      <c r="L15" t="s">
-        <v>269</v>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Brian','Benefield','Morales',1999-07-26,'M','MoralesBenefieldBr@gmail.com','9714772466','direccion prueba','Unión Hidalgo','/directory/img-person/BrianBenefield.jpg');</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -3291,7 +3216,7 @@
         <v>VelasquezZarateKe@gmail.com</v>
       </c>
       <c r="G16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>173</v>
@@ -3302,8 +3227,9 @@
       <c r="J16" t="s">
         <v>202</v>
       </c>
-      <c r="L16" t="s">
-        <v>270</v>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Kevin Gabriel','Zarate','Velasquez',1998-07-08,'M','VelasquezZarateKe@gmail.com','9712498199','direccion prueba','Chicapa','/directory/img-person/KevinGabrielZarate.jpg');</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -3327,7 +3253,7 @@
         <v>VillalobosZarateJe@gmail.com</v>
       </c>
       <c r="G17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>173</v>
@@ -3338,8 +3264,9 @@
       <c r="J17" t="s">
         <v>203</v>
       </c>
-      <c r="L17" t="s">
-        <v>271</v>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Jesus Antonio','Zarate','Villalobos',1999-04-23,'M','VillalobosZarateJe@gmail.com','9716213801','direccion prueba','Juchitán','/directory/img-person/JesusAntonioZarate.jpg');</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -3363,7 +3290,7 @@
         <v>JiménezZavalaCl@gmail.com</v>
       </c>
       <c r="G18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>173</v>
@@ -3374,8 +3301,9 @@
       <c r="J18" t="s">
         <v>191</v>
       </c>
-      <c r="L18" t="s">
-        <v>272</v>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Clarissa','Zavala','Jiménez',1999-09-01,'F','JiménezZavalaCl@gmail.com','9715339317','direccion prueba','Chicapa','/directory/img-person/ClarissaZavala.jpg');</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -3399,7 +3327,7 @@
         <v>UlisesAguilarAl@gmail.com</v>
       </c>
       <c r="G19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>173</v>
@@ -3410,8 +3338,9 @@
       <c r="J19" t="s">
         <v>204</v>
       </c>
-      <c r="L19" t="s">
-        <v>273</v>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Alba Beatriz','Aguilar','Ulises',1999-06-03,'F','UlisesAguilarAl@gmail.com','9714414298','direccion prueba','Ixtepec','/directory/img-person/AlbaBeatrizAguilar.jpg');</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3435,7 +3364,7 @@
         <v>de JesusFuentesLu@gmail.com</v>
       </c>
       <c r="G20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>173</v>
@@ -3446,8 +3375,9 @@
       <c r="J20" t="s">
         <v>192</v>
       </c>
-      <c r="L20" t="s">
-        <v>274</v>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Luis','Fuentes','de Jesus',1999-12-21,'M','de JesusFuentesLu@gmail.com','9713345356','direccion prueba','Espinal','/directory/img-person/LuisFuentes.jpg');</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3471,7 +3401,7 @@
         <v>RosadoRevueltaMa@gmail.com</v>
       </c>
       <c r="G21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>173</v>
@@ -3482,8 +3412,9 @@
       <c r="J21" t="s">
         <v>193</v>
       </c>
-      <c r="L21" t="s">
-        <v>275</v>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Maytor','Revuelta','Rosado',1999-11-27,'M','RosadoRevueltaMa@gmail.com','9713195036','direccion prueba','Juchitán','/directory/img-person/MaytorRevuelta.jpg');</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -3507,7 +3438,7 @@
         <v>LuisRoblesJo@gmail.com</v>
       </c>
       <c r="G22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>173</v>
@@ -3518,8 +3449,9 @@
       <c r="J22" t="s">
         <v>194</v>
       </c>
-      <c r="L22" t="s">
-        <v>276</v>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Jorge','Robles','Luis',1999-04-27,'M','LuisRoblesJo@gmail.com','9714341427','direccion prueba','Tehuantepec','/directory/img-person/JorgeRobles.jpg');</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3543,7 +3475,7 @@
         <v>EscobarRodasSe@gmail.com</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>173</v>
@@ -3554,8 +3486,9 @@
       <c r="J23" t="s">
         <v>195</v>
       </c>
-      <c r="L23" t="s">
-        <v>277</v>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Sergio','Rodas','Escobar',1998-11-27,'M','EscobarRodasSe@gmail.com','9713849923','direccion prueba','Unión Hidalgo','/directory/img-person/SergioRodas.jpg');</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3579,7 +3512,7 @@
         <v>SanchezRuizBr@gmail.com</v>
       </c>
       <c r="G24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>173</v>
@@ -3590,8 +3523,9 @@
       <c r="J24" t="s">
         <v>205</v>
       </c>
-      <c r="L24" t="s">
-        <v>278</v>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Brisa Donaji','Ruiz','Sanchez',1999-01-08,'F','SanchezRuizBr@gmail.com','9716521066','direccion prueba','Ixtaltepec','/directory/img-person/BrisaDonajiRuiz.jpg');</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3615,7 +3549,7 @@
         <v>VicenteRuizJa@gmail.com</v>
       </c>
       <c r="G25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>173</v>
@@ -3626,8 +3560,9 @@
       <c r="J25" t="s">
         <v>206</v>
       </c>
-      <c r="L25" t="s">
-        <v>279</v>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Jair Michael','Ruiz','Vicente',1999-10-12,'M','VicenteRuizJa@gmail.com','9715469345','direccion prueba','Tehuantepec','/directory/img-person/JairMichaelRuiz.jpg');</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3651,7 +3586,7 @@
         <v>LopezGonzalesJo@gmail.com</v>
       </c>
       <c r="G26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>173</v>
@@ -3662,8 +3597,9 @@
       <c r="J26" t="s">
         <v>207</v>
       </c>
-      <c r="L26" t="s">
-        <v>280</v>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('José Guillermo','Gonzales','Lopez',1999-01-22,'M','LopezGonzalesJo@gmail.com','9711561046','direccion prueba','Juchitán','/directory/img-person/JoséGuillermoGonzales.jpg');</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -3671,7 +3607,7 @@
         <v>100</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>156</v>
@@ -3683,10 +3619,10 @@
         <v>182</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>173</v>
@@ -3695,10 +3631,11 @@
         <v>174</v>
       </c>
       <c r="J27" t="s">
-        <v>251</v>
-      </c>
-      <c r="L27" t="s">
-        <v>281</v>
+        <v>250</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Francisco','Santiago','de la Cruz',1998-10-29,'M','CruzSantiagoFr@gmail.com','9711744464','direccion prueba','Juchitán','/directory/img-person/FranciscoSantiago.jpg');</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3706,7 +3643,7 @@
         <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>118</v>
@@ -3722,7 +3659,7 @@
         <v>ParadaRoblesLu@gmail.com</v>
       </c>
       <c r="G28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>173</v>
@@ -3731,21 +3668,22 @@
         <v>175</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
-      </c>
-      <c r="L28" t="s">
-        <v>282</v>
+        <v>251</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Luis Alberto','Robles','Parada',1998-04-03,'M','ParadaRoblesLu@gmail.com','9719614394','direccion prueba','Tehuantepec','/directory/img-person/Luis AlbertoRobles.jpg');</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="D29" s="10">
         <v>35888</v>
@@ -3758,7 +3696,7 @@
         <v>PiñonFernándezJu@gmail.com</v>
       </c>
       <c r="G29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>173</v>
@@ -3767,21 +3705,22 @@
         <v>176</v>
       </c>
       <c r="J29" t="s">
-        <v>253</v>
-      </c>
-      <c r="L29" t="s">
-        <v>283</v>
+        <v>252</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Juan Carlos','Fernández','Piñon',1998-04-03,'M','PiñonFernándezJu@gmail.com','9715787642','direccion prueba','Ixtepec','/directory/img-person/Juan CarlosFernández.jpg');</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D30" s="10">
         <v>36129</v>
@@ -3794,19 +3733,20 @@
         <v>CouderEnríquezEm@gmail.com</v>
       </c>
       <c r="G30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>173</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J30" t="s">
-        <v>254</v>
-      </c>
-      <c r="L30" t="s">
-        <v>284</v>
+        <v>253</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Emanuel','Enríquez','Couder',1998-11-30,'M','CouderEnríquezEm@gmail.com','9719665488','direccion prueba','Guevea','/directory/img-person/EmanuelEnríquez.jpg');</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -3817,7 +3757,7 @@
         <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D31" s="10">
         <v>35969</v>
@@ -3830,7 +3770,7 @@
         <v>FuentesToledoHu@gmail.com</v>
       </c>
       <c r="G31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>173</v>
@@ -3839,10 +3779,11 @@
         <v>176</v>
       </c>
       <c r="J31" t="s">
-        <v>255</v>
-      </c>
-      <c r="L31" t="s">
-        <v>285</v>
+        <v>254</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Humberto','Toledo','Fuentes',1998-06-23,'M','FuentesToledoHu@gmail.com','9718507158','direccion prueba','Ixtepec','/directory/img-person/HumbertoToledo.jpg');</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">

--- a/extras/datos/captura datos Ing Sistemas FRANCISCO.xlsx
+++ b/extras/datos/captura datos Ing Sistemas FRANCISCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tutorias\extras\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC309468-BE5D-46B3-BBE7-D7AE07ACD0FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62670AB4-EFE0-4FA1-AE61-84BEC80E2834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{23017515-5504-4510-AD65-535B5F72485F}"/>
   </bookViews>
@@ -2621,7 +2621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2B5FE0-EEC0-4F6B-975E-DE53E3E1823C}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L31"/>
     </sheetView>
   </sheetViews>
@@ -2705,8 +2705,8 @@
         <v>208</v>
       </c>
       <c r="L2" t="str">
-        <f>CONCATENATE("INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('",$S$2,C2,$S$2,"','",$S$2,A2,$S$2,"','",$S$2,B2,$S$2,"',",TEXT(D2,"aaaa-mm-dd"),",'",$S$2,E2,$S$2,"','",$S$2,F2,$S$2,"','",$S$2,G2,$S$2,"','",$S$2,H2,$S$2,"','",$S$2,I2,$S$2,"','",$S$2,J2,$S$2,"');")</f>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Usmar Isacc','Miguel','Lopez',1999-10-16,'M','LopezMiguelUs@gmail.com','9717995120','direccion prueba','Ixtepec','/directory/img-person/UsmarIsaccMiguel.jpg');</v>
+        <f>CONCATENATE("INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('",$S$2,C2,$S$2,"','",$S$2,A2,$S$2,"','",$S$2,B2,$S$2,"',",TEXT(D2,"dd/mm/aaaa"),",'",$S$2,E2,$S$2,"','",$S$2,F2,$S$2,"','",$S$2,G2,$S$2,"','",$S$2,H2,$S$2,"','",$S$2,I2,$S$2,"','",$S$2,J2,$S$2,"');")</f>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Usmar Isacc','Miguel','Lopez',16/10/1999,'M','LopezMiguelUs@gmail.com','9717995120','direccion prueba','Ixtepec','/directory/img-person/UsmarIsaccMiguel.jpg');</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -2747,8 +2747,8 @@
         <v>196</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L31" si="1">CONCATENATE("INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('",$S$2,C3,$S$2,"','",$S$2,A3,$S$2,"','",$S$2,B3,$S$2,"',",TEXT(D3,"aaaa-mm-dd"),",'",$S$2,E3,$S$2,"','",$S$2,F3,$S$2,"','",$S$2,G3,$S$2,"','",$S$2,H3,$S$2,"','",$S$2,I3,$S$2,"','",$S$2,J3,$S$2,"');")</f>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Giovanni Alexander','Morales','Lopez',1999-04-11,'M','LopezMoralesGi@gmail.com','9714324512','direccion prueba','Ixtaltepec','/directory/img-person/GiovanniAlexanderMorales.jpg');</v>
+        <f t="shared" ref="L3:L31" si="1">CONCATENATE("INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('",$S$2,C3,$S$2,"','",$S$2,A3,$S$2,"','",$S$2,B3,$S$2,"',",TEXT(D3,"dd/mm/aaaa"),",'",$S$2,E3,$S$2,"','",$S$2,F3,$S$2,"','",$S$2,G3,$S$2,"','",$S$2,H3,$S$2,"','",$S$2,I3,$S$2,"','",$S$2,J3,$S$2,"');")</f>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Giovanni Alexander','Morales','Lopez',11/04/1999,'M','LopezMoralesGi@gmail.com','9714324512','direccion prueba','Ixtaltepec','/directory/img-person/GiovanniAlexanderMorales.jpg');</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="L4" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Roel','Morales','Orozco',1998-05-06,'M','OrozcoMoralesRo@gmail.com','9714860957','direccion prueba','Juchitán','/directory/img-person/RoelMorales.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Roel','Morales','Orozco',06/05/1998,'M','OrozcoMoralesRo@gmail.com','9714860957','direccion prueba','Juchitán','/directory/img-person/RoelMorales.jpg');</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Karina','Nuñez','Silva',1999-05-07,'F','SilvaNuñezKa@gmail.com','9712623032','direccion prueba','Ixtepec','/directory/img-person/KarinaNuñez.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Karina','Nuñez','Silva',07/05/1999,'F','SilvaNuñezKa@gmail.com','9712623032','direccion prueba','Ixtepec','/directory/img-person/KarinaNuñez.jpg');</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Kenia','Orozco','Cruz',1999-10-31,'F','CruzOrozcoKe@gmail.com','9712793311','direccion prueba','Salina Cruz','/directory/img-person/KeniaOrozco.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Kenia','Orozco','Cruz',31/10/1999,'F','CruzOrozcoKe@gmail.com','9712793311','direccion prueba','Salina Cruz','/directory/img-person/KeniaOrozco.jpg');</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Dennis Sabas','Orozco','Bautista',1999-01-23,'F','BautistaOrozcoDe@gmail.com','9713721570','direccion prueba','Juchitán','/directory/img-person/DennisSabasOrozco.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Dennis Sabas','Orozco','Bautista',23/01/1999,'F','BautistaOrozcoDe@gmail.com','9713721570','direccion prueba','Juchitán','/directory/img-person/DennisSabasOrozco.jpg');</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Carlos Roberto','Ortiz','Matus',1999-05-17,'M','MatusOrtizCa@gmail.com','9718332712','direccion prueba','Salina Cruz','/directory/img-person/CarlosRobertoOrtiz.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Carlos Roberto','Ortiz','Matus',17/05/1999,'M','MatusOrtizCa@gmail.com','9718332712','direccion prueba','Salina Cruz','/directory/img-person/CarlosRobertoOrtiz.jpg');</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Isis Yamile','Altamirano','Solano',1998-05-03,'F','SolanoAltamiranoIs@gmail.com','9718259758','direccion prueba','Ixtepec','/directory/img-person/IsisYamileAltamirano.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Isis Yamile','Altamirano','Solano',03/05/1998,'F','SolanoAltamiranoIs@gmail.com','9718259758','direccion prueba','Ixtepec','/directory/img-person/IsisYamileAltamirano.jpg');</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Fátima','Antinio','Sanchez',1999-01-08,'F','SanchezAntinioFá@gmail.com','9716330120','direccion prueba','Juchitán','/directory/img-person/FátimaAntinio.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Fátima','Antinio','Sanchez',08/01/1999,'F','SanchezAntinioFá@gmail.com','9716330120','direccion prueba','Juchitán','/directory/img-person/FátimaAntinio.jpg');</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Itzury Alejandra','Aquino','Cruz',1999-12-27,'F','CruzAquinoIt@gmail.com','9716802586','direccion prueba','Chicapa','/directory/img-person/ItzuryAlejandraAquino.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Itzury Alejandra','Aquino','Cruz',27/12/1999,'F','CruzAquinoIt@gmail.com','9716802586','direccion prueba','Chicapa','/directory/img-person/ItzuryAlejandraAquino.jpg');</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Vicente','Aquino','Regalado',1999-10-11,'M','RegaladoAquinoVi@gmail.com','9712106115','direccion prueba','Juchitán','/directory/img-person/VicenteAquino.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Vicente','Aquino','Regalado',11/10/1999,'M','RegaladoAquinoVi@gmail.com','9712106115','direccion prueba','Juchitán','/directory/img-person/VicenteAquino.jpg');</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Baudel','Aranjo','Benitez',1999-12-03,'M','BenitezAranjoBa@gmail.com','9717592062','direccion prueba','Espinal','/directory/img-person/BaudelAranjo.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Baudel','Aranjo','Benitez',03/12/1999,'M','BenitezAranjoBa@gmail.com','9717592062','direccion prueba','Espinal','/directory/img-person/BaudelAranjo.jpg');</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Yosmar Manuel','Avedaño','Morales',1999-11-14,'M','MoralesAvedañoYo@gmail.com','9716019661','direccion prueba','Ixtaltepec','/directory/img-person/YosmarManuelAvedaño.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Yosmar Manuel','Avedaño','Morales',14/11/1999,'M','MoralesAvedañoYo@gmail.com','9716019661','direccion prueba','Ixtaltepec','/directory/img-person/YosmarManuelAvedaño.jpg');</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Brian','Benefield','Morales',1999-07-26,'M','MoralesBenefieldBr@gmail.com','9714772466','direccion prueba','Unión Hidalgo','/directory/img-person/BrianBenefield.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Brian','Benefield','Morales',26/07/1999,'M','MoralesBenefieldBr@gmail.com','9714772466','direccion prueba','Unión Hidalgo','/directory/img-person/BrianBenefield.jpg');</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Kevin Gabriel','Zarate','Velasquez',1998-07-08,'M','VelasquezZarateKe@gmail.com','9712498199','direccion prueba','Chicapa','/directory/img-person/KevinGabrielZarate.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Kevin Gabriel','Zarate','Velasquez',08/07/1998,'M','VelasquezZarateKe@gmail.com','9712498199','direccion prueba','Chicapa','/directory/img-person/KevinGabrielZarate.jpg');</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Jesus Antonio','Zarate','Villalobos',1999-04-23,'M','VillalobosZarateJe@gmail.com','9716213801','direccion prueba','Juchitán','/directory/img-person/JesusAntonioZarate.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Jesus Antonio','Zarate','Villalobos',23/04/1999,'M','VillalobosZarateJe@gmail.com','9716213801','direccion prueba','Juchitán','/directory/img-person/JesusAntonioZarate.jpg');</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Clarissa','Zavala','Jiménez',1999-09-01,'F','JiménezZavalaCl@gmail.com','9715339317','direccion prueba','Chicapa','/directory/img-person/ClarissaZavala.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Clarissa','Zavala','Jiménez',01/09/1999,'F','JiménezZavalaCl@gmail.com','9715339317','direccion prueba','Chicapa','/directory/img-person/ClarissaZavala.jpg');</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Alba Beatriz','Aguilar','Ulises',1999-06-03,'F','UlisesAguilarAl@gmail.com','9714414298','direccion prueba','Ixtepec','/directory/img-person/AlbaBeatrizAguilar.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Alba Beatriz','Aguilar','Ulises',03/06/1999,'F','UlisesAguilarAl@gmail.com','9714414298','direccion prueba','Ixtepec','/directory/img-person/AlbaBeatrizAguilar.jpg');</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Luis','Fuentes','de Jesus',1999-12-21,'M','de JesusFuentesLu@gmail.com','9713345356','direccion prueba','Espinal','/directory/img-person/LuisFuentes.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Luis','Fuentes','de Jesus',21/12/1999,'M','de JesusFuentesLu@gmail.com','9713345356','direccion prueba','Espinal','/directory/img-person/LuisFuentes.jpg');</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Maytor','Revuelta','Rosado',1999-11-27,'M','RosadoRevueltaMa@gmail.com','9713195036','direccion prueba','Juchitán','/directory/img-person/MaytorRevuelta.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Maytor','Revuelta','Rosado',27/11/1999,'M','RosadoRevueltaMa@gmail.com','9713195036','direccion prueba','Juchitán','/directory/img-person/MaytorRevuelta.jpg');</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Jorge','Robles','Luis',1999-04-27,'M','LuisRoblesJo@gmail.com','9714341427','direccion prueba','Tehuantepec','/directory/img-person/JorgeRobles.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Jorge','Robles','Luis',27/04/1999,'M','LuisRoblesJo@gmail.com','9714341427','direccion prueba','Tehuantepec','/directory/img-person/JorgeRobles.jpg');</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Sergio','Rodas','Escobar',1998-11-27,'M','EscobarRodasSe@gmail.com','9713849923','direccion prueba','Unión Hidalgo','/directory/img-person/SergioRodas.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Sergio','Rodas','Escobar',27/11/1998,'M','EscobarRodasSe@gmail.com','9713849923','direccion prueba','Unión Hidalgo','/directory/img-person/SergioRodas.jpg');</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Brisa Donaji','Ruiz','Sanchez',1999-01-08,'F','SanchezRuizBr@gmail.com','9716521066','direccion prueba','Ixtaltepec','/directory/img-person/BrisaDonajiRuiz.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Brisa Donaji','Ruiz','Sanchez',08/01/1999,'F','SanchezRuizBr@gmail.com','9716521066','direccion prueba','Ixtaltepec','/directory/img-person/BrisaDonajiRuiz.jpg');</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Jair Michael','Ruiz','Vicente',1999-10-12,'M','VicenteRuizJa@gmail.com','9715469345','direccion prueba','Tehuantepec','/directory/img-person/JairMichaelRuiz.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Jair Michael','Ruiz','Vicente',12/10/1999,'M','VicenteRuizJa@gmail.com','9715469345','direccion prueba','Tehuantepec','/directory/img-person/JairMichaelRuiz.jpg');</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('José Guillermo','Gonzales','Lopez',1999-01-22,'M','LopezGonzalesJo@gmail.com','9711561046','direccion prueba','Juchitán','/directory/img-person/JoséGuillermoGonzales.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('José Guillermo','Gonzales','Lopez',22/01/1999,'M','LopezGonzalesJo@gmail.com','9711561046','direccion prueba','Juchitán','/directory/img-person/JoséGuillermoGonzales.jpg');</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Francisco','Santiago','de la Cruz',1998-10-29,'M','CruzSantiagoFr@gmail.com','9711744464','direccion prueba','Juchitán','/directory/img-person/FranciscoSantiago.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Francisco','Santiago','de la Cruz',29/10/1998,'M','CruzSantiagoFr@gmail.com','9711744464','direccion prueba','Juchitán','/directory/img-person/FranciscoSantiago.jpg');</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Luis Alberto','Robles','Parada',1998-04-03,'M','ParadaRoblesLu@gmail.com','9719614394','direccion prueba','Tehuantepec','/directory/img-person/Luis AlbertoRobles.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Luis Alberto','Robles','Parada',03/04/1998,'M','ParadaRoblesLu@gmail.com','9719614394','direccion prueba','Tehuantepec','/directory/img-person/Luis AlbertoRobles.jpg');</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="L29" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Juan Carlos','Fernández','Piñon',1998-04-03,'M','PiñonFernándezJu@gmail.com','9715787642','direccion prueba','Ixtepec','/directory/img-person/Juan CarlosFernández.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Juan Carlos','Fernández','Piñon',03/04/1998,'M','PiñonFernándezJu@gmail.com','9715787642','direccion prueba','Ixtepec','/directory/img-person/Juan CarlosFernández.jpg');</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="L30" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Emanuel','Enríquez','Couder',1998-11-30,'M','CouderEnríquezEm@gmail.com','9719665488','direccion prueba','Guevea','/directory/img-person/EmanuelEnríquez.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Emanuel','Enríquez','Couder',30/11/1998,'M','CouderEnríquezEm@gmail.com','9719665488','direccion prueba','Guevea','/directory/img-person/EmanuelEnríquez.jpg');</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Humberto','Toledo','Fuentes',1998-06-23,'M','FuentesToledoHu@gmail.com','9718507158','direccion prueba','Ixtepec','/directory/img-person/HumbertoToledo.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Humberto','Toledo','Fuentes',23/06/1998,'M','FuentesToledoHu@gmail.com','9718507158','direccion prueba','Ixtepec','/directory/img-person/HumbertoToledo.jpg');</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">

--- a/extras/datos/captura datos Ing Sistemas FRANCISCO.xlsx
+++ b/extras/datos/captura datos Ing Sistemas FRANCISCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tutorias\extras\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62670AB4-EFE0-4FA1-AE61-84BEC80E2834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE8A0E0-EE45-4F66-BA93-D8BD7277FAE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{23017515-5504-4510-AD65-535B5F72485F}"/>
   </bookViews>
@@ -2622,7 +2622,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L31"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2705,8 +2705,8 @@
         <v>208</v>
       </c>
       <c r="L2" t="str">
-        <f>CONCATENATE("INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('",$S$2,C2,$S$2,"','",$S$2,A2,$S$2,"','",$S$2,B2,$S$2,"',",TEXT(D2,"dd/mm/aaaa"),",'",$S$2,E2,$S$2,"','",$S$2,F2,$S$2,"','",$S$2,G2,$S$2,"','",$S$2,H2,$S$2,"','",$S$2,I2,$S$2,"','",$S$2,J2,$S$2,"');")</f>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Usmar Isacc','Miguel','Lopez',16/10/1999,'M','LopezMiguelUs@gmail.com','9717995120','direccion prueba','Ixtepec','/directory/img-person/UsmarIsaccMiguel.jpg');</v>
+        <f>CONCATENATE("INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('",$S$2,C2,$S$2,"','",$S$2,A2,$S$2,"','",$S$2,B2,$S$2,"','",TEXT(D2,"aaaa/mm/dd"),"','",$S$2,E2,$S$2,"','",$S$2,F2,$S$2,"','",$S$2,G2,$S$2,"','",$S$2,H2,$S$2,"','",$S$2,I2,$S$2,"','",$S$2,J2,$S$2,"');")</f>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Usmar Isacc','Miguel','Lopez','1999/10/16','M','LopezMiguelUs@gmail.com','9717995120','direccion prueba','Ixtepec','/directory/img-person/UsmarIsaccMiguel.jpg');</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -2747,8 +2747,8 @@
         <v>196</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L31" si="1">CONCATENATE("INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('",$S$2,C3,$S$2,"','",$S$2,A3,$S$2,"','",$S$2,B3,$S$2,"',",TEXT(D3,"dd/mm/aaaa"),",'",$S$2,E3,$S$2,"','",$S$2,F3,$S$2,"','",$S$2,G3,$S$2,"','",$S$2,H3,$S$2,"','",$S$2,I3,$S$2,"','",$S$2,J3,$S$2,"');")</f>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Giovanni Alexander','Morales','Lopez',11/04/1999,'M','LopezMoralesGi@gmail.com','9714324512','direccion prueba','Ixtaltepec','/directory/img-person/GiovanniAlexanderMorales.jpg');</v>
+        <f t="shared" ref="L3:L31" si="1">CONCATENATE("INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('",$S$2,C3,$S$2,"','",$S$2,A3,$S$2,"','",$S$2,B3,$S$2,"','",TEXT(D3,"aaaa/mm/dd"),"','",$S$2,E3,$S$2,"','",$S$2,F3,$S$2,"','",$S$2,G3,$S$2,"','",$S$2,H3,$S$2,"','",$S$2,I3,$S$2,"','",$S$2,J3,$S$2,"');")</f>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Giovanni Alexander','Morales','Lopez','1999/04/11','M','LopezMoralesGi@gmail.com','9714324512','direccion prueba','Ixtaltepec','/directory/img-person/GiovanniAlexanderMorales.jpg');</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="L4" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Roel','Morales','Orozco',06/05/1998,'M','OrozcoMoralesRo@gmail.com','9714860957','direccion prueba','Juchitán','/directory/img-person/RoelMorales.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Roel','Morales','Orozco','1998/05/06','M','OrozcoMoralesRo@gmail.com','9714860957','direccion prueba','Juchitán','/directory/img-person/RoelMorales.jpg');</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Karina','Nuñez','Silva',07/05/1999,'F','SilvaNuñezKa@gmail.com','9712623032','direccion prueba','Ixtepec','/directory/img-person/KarinaNuñez.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Karina','Nuñez','Silva','1999/05/07','F','SilvaNuñezKa@gmail.com','9712623032','direccion prueba','Ixtepec','/directory/img-person/KarinaNuñez.jpg');</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Kenia','Orozco','Cruz',31/10/1999,'F','CruzOrozcoKe@gmail.com','9712793311','direccion prueba','Salina Cruz','/directory/img-person/KeniaOrozco.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Kenia','Orozco','Cruz','1999/10/31','F','CruzOrozcoKe@gmail.com','9712793311','direccion prueba','Salina Cruz','/directory/img-person/KeniaOrozco.jpg');</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Dennis Sabas','Orozco','Bautista',23/01/1999,'F','BautistaOrozcoDe@gmail.com','9713721570','direccion prueba','Juchitán','/directory/img-person/DennisSabasOrozco.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Dennis Sabas','Orozco','Bautista','1999/01/23','F','BautistaOrozcoDe@gmail.com','9713721570','direccion prueba','Juchitán','/directory/img-person/DennisSabasOrozco.jpg');</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Carlos Roberto','Ortiz','Matus',17/05/1999,'M','MatusOrtizCa@gmail.com','9718332712','direccion prueba','Salina Cruz','/directory/img-person/CarlosRobertoOrtiz.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Carlos Roberto','Ortiz','Matus','1999/05/17','M','MatusOrtizCa@gmail.com','9718332712','direccion prueba','Salina Cruz','/directory/img-person/CarlosRobertoOrtiz.jpg');</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Isis Yamile','Altamirano','Solano',03/05/1998,'F','SolanoAltamiranoIs@gmail.com','9718259758','direccion prueba','Ixtepec','/directory/img-person/IsisYamileAltamirano.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Isis Yamile','Altamirano','Solano','1998/05/03','F','SolanoAltamiranoIs@gmail.com','9718259758','direccion prueba','Ixtepec','/directory/img-person/IsisYamileAltamirano.jpg');</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Fátima','Antinio','Sanchez',08/01/1999,'F','SanchezAntinioFá@gmail.com','9716330120','direccion prueba','Juchitán','/directory/img-person/FátimaAntinio.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Fátima','Antinio','Sanchez','1999/01/08','F','SanchezAntinioFá@gmail.com','9716330120','direccion prueba','Juchitán','/directory/img-person/FátimaAntinio.jpg');</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Itzury Alejandra','Aquino','Cruz',27/12/1999,'F','CruzAquinoIt@gmail.com','9716802586','direccion prueba','Chicapa','/directory/img-person/ItzuryAlejandraAquino.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Itzury Alejandra','Aquino','Cruz','1999/12/27','F','CruzAquinoIt@gmail.com','9716802586','direccion prueba','Chicapa','/directory/img-person/ItzuryAlejandraAquino.jpg');</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Vicente','Aquino','Regalado',11/10/1999,'M','RegaladoAquinoVi@gmail.com','9712106115','direccion prueba','Juchitán','/directory/img-person/VicenteAquino.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Vicente','Aquino','Regalado','1999/10/11','M','RegaladoAquinoVi@gmail.com','9712106115','direccion prueba','Juchitán','/directory/img-person/VicenteAquino.jpg');</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Baudel','Aranjo','Benitez',03/12/1999,'M','BenitezAranjoBa@gmail.com','9717592062','direccion prueba','Espinal','/directory/img-person/BaudelAranjo.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Baudel','Aranjo','Benitez','1999/12/03','M','BenitezAranjoBa@gmail.com','9717592062','direccion prueba','Espinal','/directory/img-person/BaudelAranjo.jpg');</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Yosmar Manuel','Avedaño','Morales',14/11/1999,'M','MoralesAvedañoYo@gmail.com','9716019661','direccion prueba','Ixtaltepec','/directory/img-person/YosmarManuelAvedaño.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Yosmar Manuel','Avedaño','Morales','1999/11/14','M','MoralesAvedañoYo@gmail.com','9716019661','direccion prueba','Ixtaltepec','/directory/img-person/YosmarManuelAvedaño.jpg');</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Brian','Benefield','Morales',26/07/1999,'M','MoralesBenefieldBr@gmail.com','9714772466','direccion prueba','Unión Hidalgo','/directory/img-person/BrianBenefield.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Brian','Benefield','Morales','1999/07/26','M','MoralesBenefieldBr@gmail.com','9714772466','direccion prueba','Unión Hidalgo','/directory/img-person/BrianBenefield.jpg');</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Kevin Gabriel','Zarate','Velasquez',08/07/1998,'M','VelasquezZarateKe@gmail.com','9712498199','direccion prueba','Chicapa','/directory/img-person/KevinGabrielZarate.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Kevin Gabriel','Zarate','Velasquez','1998/07/08','M','VelasquezZarateKe@gmail.com','9712498199','direccion prueba','Chicapa','/directory/img-person/KevinGabrielZarate.jpg');</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Jesus Antonio','Zarate','Villalobos',23/04/1999,'M','VillalobosZarateJe@gmail.com','9716213801','direccion prueba','Juchitán','/directory/img-person/JesusAntonioZarate.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Jesus Antonio','Zarate','Villalobos','1999/04/23','M','VillalobosZarateJe@gmail.com','9716213801','direccion prueba','Juchitán','/directory/img-person/JesusAntonioZarate.jpg');</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Clarissa','Zavala','Jiménez',01/09/1999,'F','JiménezZavalaCl@gmail.com','9715339317','direccion prueba','Chicapa','/directory/img-person/ClarissaZavala.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Clarissa','Zavala','Jiménez','1999/09/01','F','JiménezZavalaCl@gmail.com','9715339317','direccion prueba','Chicapa','/directory/img-person/ClarissaZavala.jpg');</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Alba Beatriz','Aguilar','Ulises',03/06/1999,'F','UlisesAguilarAl@gmail.com','9714414298','direccion prueba','Ixtepec','/directory/img-person/AlbaBeatrizAguilar.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Alba Beatriz','Aguilar','Ulises','1999/06/03','F','UlisesAguilarAl@gmail.com','9714414298','direccion prueba','Ixtepec','/directory/img-person/AlbaBeatrizAguilar.jpg');</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Luis','Fuentes','de Jesus',21/12/1999,'M','de JesusFuentesLu@gmail.com','9713345356','direccion prueba','Espinal','/directory/img-person/LuisFuentes.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Luis','Fuentes','de Jesus','1999/12/21','M','de JesusFuentesLu@gmail.com','9713345356','direccion prueba','Espinal','/directory/img-person/LuisFuentes.jpg');</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Maytor','Revuelta','Rosado',27/11/1999,'M','RosadoRevueltaMa@gmail.com','9713195036','direccion prueba','Juchitán','/directory/img-person/MaytorRevuelta.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Maytor','Revuelta','Rosado','1999/11/27','M','RosadoRevueltaMa@gmail.com','9713195036','direccion prueba','Juchitán','/directory/img-person/MaytorRevuelta.jpg');</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Jorge','Robles','Luis',27/04/1999,'M','LuisRoblesJo@gmail.com','9714341427','direccion prueba','Tehuantepec','/directory/img-person/JorgeRobles.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Jorge','Robles','Luis','1999/04/27','M','LuisRoblesJo@gmail.com','9714341427','direccion prueba','Tehuantepec','/directory/img-person/JorgeRobles.jpg');</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Sergio','Rodas','Escobar',27/11/1998,'M','EscobarRodasSe@gmail.com','9713849923','direccion prueba','Unión Hidalgo','/directory/img-person/SergioRodas.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Sergio','Rodas','Escobar','1998/11/27','M','EscobarRodasSe@gmail.com','9713849923','direccion prueba','Unión Hidalgo','/directory/img-person/SergioRodas.jpg');</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Brisa Donaji','Ruiz','Sanchez',08/01/1999,'F','SanchezRuizBr@gmail.com','9716521066','direccion prueba','Ixtaltepec','/directory/img-person/BrisaDonajiRuiz.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Brisa Donaji','Ruiz','Sanchez','1999/01/08','F','SanchezRuizBr@gmail.com','9716521066','direccion prueba','Ixtaltepec','/directory/img-person/BrisaDonajiRuiz.jpg');</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Jair Michael','Ruiz','Vicente',12/10/1999,'M','VicenteRuizJa@gmail.com','9715469345','direccion prueba','Tehuantepec','/directory/img-person/JairMichaelRuiz.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Jair Michael','Ruiz','Vicente','1999/10/12','M','VicenteRuizJa@gmail.com','9715469345','direccion prueba','Tehuantepec','/directory/img-person/JairMichaelRuiz.jpg');</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('José Guillermo','Gonzales','Lopez',22/01/1999,'M','LopezGonzalesJo@gmail.com','9711561046','direccion prueba','Juchitán','/directory/img-person/JoséGuillermoGonzales.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('José Guillermo','Gonzales','Lopez','1999/01/22','M','LopezGonzalesJo@gmail.com','9711561046','direccion prueba','Juchitán','/directory/img-person/JoséGuillermoGonzales.jpg');</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Francisco','Santiago','de la Cruz',29/10/1998,'M','CruzSantiagoFr@gmail.com','9711744464','direccion prueba','Juchitán','/directory/img-person/FranciscoSantiago.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Francisco','Santiago','de la Cruz','1998/10/29','M','CruzSantiagoFr@gmail.com','9711744464','direccion prueba','Juchitán','/directory/img-person/FranciscoSantiago.jpg');</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Luis Alberto','Robles','Parada',03/04/1998,'M','ParadaRoblesLu@gmail.com','9719614394','direccion prueba','Tehuantepec','/directory/img-person/Luis AlbertoRobles.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Luis Alberto','Robles','Parada','1998/04/03','M','ParadaRoblesLu@gmail.com','9719614394','direccion prueba','Tehuantepec','/directory/img-person/Luis AlbertoRobles.jpg');</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="L29" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Juan Carlos','Fernández','Piñon',03/04/1998,'M','PiñonFernándezJu@gmail.com','9715787642','direccion prueba','Ixtepec','/directory/img-person/Juan CarlosFernández.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Juan Carlos','Fernández','Piñon','1998/04/03','M','PiñonFernándezJu@gmail.com','9715787642','direccion prueba','Ixtepec','/directory/img-person/Juan CarlosFernández.jpg');</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="L30" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Emanuel','Enríquez','Couder',30/11/1998,'M','CouderEnríquezEm@gmail.com','9719665488','direccion prueba','Guevea','/directory/img-person/EmanuelEnríquez.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Emanuel','Enríquez','Couder','1998/11/30','M','CouderEnríquezEm@gmail.com','9719665488','direccion prueba','Guevea','/directory/img-person/EmanuelEnríquez.jpg');</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Humberto','Toledo','Fuentes',23/06/1998,'M','FuentesToledoHu@gmail.com','9718507158','direccion prueba','Ixtepec','/directory/img-person/HumbertoToledo.jpg');</v>
+        <v>INSERT INTO persona (Nombre,APaterno,AMaterno,FechaNac,Sexo,Correo,NTelefono,Direccion,Ciudad,Foto) VALUES ('Humberto','Toledo','Fuentes','1998/06/23','M','FuentesToledoHu@gmail.com','9718507158','direccion prueba','Ixtepec','/directory/img-person/HumbertoToledo.jpg');</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
